--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/49_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/49_455-55R22.xlsx
@@ -1106,100 +1106,100 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.2914349181495037</v>
+        <v>0.2368253017741181</v>
       </c>
       <c r="AZ2">
-        <v>0.1093904586303406</v>
+        <v>0.0951391588474912</v>
       </c>
       <c r="BA2">
-        <v>0.1077759526075898</v>
+        <v>0.09388258047262835</v>
       </c>
       <c r="BB2">
-        <v>0.02867117707852629</v>
+        <v>0.03231492517900596</v>
       </c>
       <c r="BC2">
-        <v>0.01037617990615508</v>
+        <v>0.0180758344038541</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>0.00668664448912337</v>
       </c>
       <c r="BE2">
-        <v>0.03962554688829639</v>
+        <v>0.04084076777063304</v>
       </c>
       <c r="BF2">
-        <v>0.003587627702367524</v>
+        <v>0.01279226916736602</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>0.003824055133512251</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>0.007324203644566706</v>
       </c>
       <c r="BI2">
-        <v>0.02768679132119778</v>
+        <v>0.03154877266068062</v>
       </c>
       <c r="BJ2">
-        <v>0.1905700221359238</v>
+        <v>0.1583216323375041</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>0.001371224155384374</v>
       </c>
       <c r="BL2">
-        <v>0.138463469278064</v>
+        <v>0.1177668331684835</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>0.0007055758245305599</v>
       </c>
       <c r="BN2">
-        <v>0.01905349489516644</v>
+        <v>0.0248294334697076</v>
       </c>
       <c r="BO2">
-        <v>0.008294541706803119</v>
+        <v>0.01645568464365851</v>
       </c>
       <c r="BP2">
-        <v>0.006132591060066446</v>
+        <v>0.01477302729092759</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>5.659415652569508E-05</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>0.00163935040258514</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.002455432068485413</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>0.007507849618810986</v>
       </c>
       <c r="BU2">
-        <v>0.005154041397910612</v>
+        <v>0.0140114170356129</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>5.613094161687884E-06</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>0.003796914952159778</v>
       </c>
       <c r="BX2">
-        <v>0.008464766991824926</v>
+        <v>0.01658817186203928</v>
       </c>
       <c r="BY2">
-        <v>0.0006955538890121722</v>
+        <v>0.0105413531836786</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>0.003873955867963795</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>0.00469422611423683</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>0.007168778957164812</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>0.0005844174918212412</v>
       </c>
       <c r="CD2">
-        <v>0.004622866361251105</v>
+        <v>0.01359800076157753</v>
       </c>
     </row>
     <row r="3" spans="1:82">
@@ -1354,100 +1354,100 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.4147662026012903</v>
+        <v>0.329495479742101</v>
       </c>
       <c r="AZ3">
-        <v>0.03895398624405033</v>
+        <v>0.04000635646022945</v>
       </c>
       <c r="BA3">
-        <v>0.125401777417095</v>
+        <v>0.1065973138242925</v>
       </c>
       <c r="BB3">
-        <v>0.01832870004544264</v>
+        <v>0.0241186451001578</v>
       </c>
       <c r="BC3">
-        <v>0.000471350921028096</v>
+        <v>0.01036308283485074</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>0.0006268119625174357</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>0.006030083122432917</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>0.003031575273171524</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>0.001988744870638646</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>0.008002958437847792</v>
       </c>
       <c r="BI3">
-        <v>0.02646980201588823</v>
+        <v>0.03038975702625953</v>
       </c>
       <c r="BJ3">
-        <v>0.1415900552546441</v>
+        <v>0.1190671861559059</v>
       </c>
       <c r="BK3">
-        <v>0.004323160733364187</v>
+        <v>0.01333014190608043</v>
       </c>
       <c r="BL3">
-        <v>0.1137612825134275</v>
+        <v>0.09763061046139139</v>
       </c>
       <c r="BM3">
-        <v>0.01193175011663983</v>
+        <v>0.01919105800754763</v>
       </c>
       <c r="BN3">
-        <v>0.04456883996659798</v>
+        <v>0.04433149282022249</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>0.008485382921999724</v>
       </c>
       <c r="BP3">
-        <v>0.0005875116875130904</v>
+        <v>0.01045256177402797</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>0.00318214078644968</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>1.233694591428661E-05</v>
       </c>
       <c r="BS3">
-        <v>0.002444420940245162</v>
+        <v>0.01188294377916325</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>0.005782045630864896</v>
       </c>
       <c r="BU3">
-        <v>0.01555344635565222</v>
+        <v>0.02198085999745505</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>1.627808535453858E-11</v>
       </c>
       <c r="BW3">
-        <v>0</v>
+        <v>0.007274788649958393</v>
       </c>
       <c r="BX3">
-        <v>0.01473865006766411</v>
+        <v>0.0213532203072147</v>
       </c>
       <c r="BY3">
-        <v>0.02610906311945738</v>
+        <v>0.03011187892034354</v>
       </c>
       <c r="BZ3">
-        <v>0</v>
+        <v>0.006265155358023496</v>
       </c>
       <c r="CA3">
-        <v>0</v>
+        <v>0.002090137433516284</v>
       </c>
       <c r="CB3">
-        <v>0</v>
+        <v>0.00295758487362951</v>
       </c>
       <c r="CC3">
-        <v>0</v>
+        <v>0.004741105192412662</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>0.009226559407101405</v>
       </c>
     </row>
     <row r="4" spans="1:82">
@@ -1461,25 +1461,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01592003468487067</v>
+        <v>0.02197098574988667</v>
       </c>
       <c r="E4">
-        <v>0.1903158616730574</v>
+        <v>0.1584875437909245</v>
       </c>
       <c r="F4">
-        <v>0.01697716118985128</v>
+        <v>0.02279850137549668</v>
       </c>
       <c r="G4">
-        <v>0.1006924550300044</v>
+        <v>0.08833059562237307</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004665886959433691</v>
       </c>
       <c r="I4">
-        <v>0.0531118929761815</v>
+        <v>0.05108466678666811</v>
       </c>
       <c r="J4">
-        <v>0.01162217287798419</v>
+        <v>0.01860663173439797</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1488,40 +1488,40 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.002319619500982907</v>
+        <v>0.01132461937232882</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01837691735401098</v>
+        <v>0.02389422652516297</v>
       </c>
       <c r="P4">
-        <v>0.2766934402190677</v>
+        <v>0.2261036669440288</v>
       </c>
       <c r="Q4">
-        <v>0.006298349651794205</v>
+        <v>0.0144391580338511</v>
       </c>
       <c r="R4">
-        <v>0.02856251025877151</v>
+        <v>0.03186747972152136</v>
       </c>
       <c r="S4">
-        <v>0.04389108690710743</v>
+        <v>0.04386664598506273</v>
       </c>
       <c r="T4">
-        <v>0.0680388765746501</v>
+        <v>0.06276946715139239</v>
       </c>
       <c r="U4">
-        <v>0.03483727273808696</v>
+        <v>0.0367793459685229</v>
       </c>
       <c r="V4">
-        <v>0.09658376704024144</v>
+        <v>0.08511432633363034</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.003982299721244901</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.0062679704021519</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1530,31 +1530,31 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.001020995857506599</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01510816589038944</v>
+        <v>0.02133545716346577</v>
       </c>
       <c r="AD4">
-        <v>0.006825400799838795</v>
+        <v>0.01485173217559074</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.008088240239235822</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.005829988216221092</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.008554641652753624</v>
       </c>
       <c r="AH4">
-        <v>0.01382501463310903</v>
+        <v>0.02033101000371914</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.007633916513428749</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1850,100 +1850,100 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.3493494273984147</v>
+        <v>0.2855194562293229</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.00832502704647551</v>
       </c>
       <c r="BA5">
-        <v>0.1786859604583735</v>
+        <v>0.1509232556295547</v>
       </c>
       <c r="BB5">
-        <v>0.01895151120634673</v>
+        <v>0.02494638219727697</v>
       </c>
       <c r="BC5">
-        <v>0.01274829335005761</v>
+        <v>0.0200541251142629</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.00371805915941621</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.001690325200485839</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>0.005158314808928573</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.004717142772411045</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.0008987014861460023</v>
       </c>
       <c r="BI5">
-        <v>0.02966222979230745</v>
+        <v>0.03339354463462577</v>
       </c>
       <c r="BJ5">
-        <v>0.1475234564602715</v>
+        <v>0.1263464981399555</v>
       </c>
       <c r="BK5">
-        <v>0.03046308597212065</v>
+        <v>0.03402515139243042</v>
       </c>
       <c r="BL5">
-        <v>0.04074886462450223</v>
+        <v>0.04213717883241647</v>
       </c>
       <c r="BM5">
-        <v>0.0698939137331803</v>
+        <v>0.06512284147397009</v>
       </c>
       <c r="BN5">
-        <v>0.01127110496069175</v>
+        <v>0.01888911922083061</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.0003286750052872244</v>
       </c>
       <c r="BP5">
-        <v>0.009140912898698755</v>
+        <v>0.01720911257832653</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.005273384397633783</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.0007158554471996387</v>
       </c>
       <c r="BS5">
-        <v>0.01295678977107702</v>
+        <v>0.02021855881885723</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.0005726895368251104</v>
       </c>
       <c r="BU5">
-        <v>0.01537074101880772</v>
+        <v>0.02212235622906554</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.004077428993235881</v>
       </c>
       <c r="BW5">
-        <v>0.009753515514289665</v>
+        <v>0.0176922504520285</v>
       </c>
       <c r="BX5">
-        <v>0.03542204093224291</v>
+        <v>0.03793610262613721</v>
       </c>
       <c r="BY5">
-        <v>0.02614382955271561</v>
+        <v>0.03061870762393295</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>0.001670404666065819</v>
       </c>
       <c r="CA5">
-        <v>0</v>
+        <v>0.001209401512395188</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>0.0002615964692484378</v>
       </c>
       <c r="CC5">
-        <v>0.00191432235590193</v>
+        <v>0.01150975789046943</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>0.002718594414781857</v>
       </c>
     </row>
     <row r="6" spans="1:82">
@@ -1960,19 +1960,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2401219796320955</v>
+        <v>0.2182430557005379</v>
       </c>
       <c r="F6">
-        <v>0.03129633363922706</v>
+        <v>0.03371630960078022</v>
       </c>
       <c r="G6">
-        <v>0.2026591726951799</v>
+        <v>0.1851394116008638</v>
       </c>
       <c r="H6">
-        <v>0.05202541699887645</v>
+        <v>0.05203336200974232</v>
       </c>
       <c r="I6">
-        <v>0.01986514103927399</v>
+        <v>0.02361524771022582</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1981,37 +1981,37 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.001476751880108606</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.000218172644546502</v>
       </c>
       <c r="O6">
-        <v>0.07219386056548044</v>
+        <v>0.06985501053163469</v>
       </c>
       <c r="P6">
-        <v>0.1673246684291049</v>
+        <v>0.153916421406022</v>
       </c>
       <c r="Q6">
-        <v>0.002550231798633877</v>
+        <v>0.008315096974443775</v>
       </c>
       <c r="R6">
-        <v>0.08352940772529724</v>
+        <v>0.07987155626152448</v>
       </c>
       <c r="S6">
-        <v>0.04968235641154851</v>
+        <v>0.0499629393658254</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.003213863031538792</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.003371336995677717</v>
       </c>
       <c r="V6">
-        <v>0.0167540193499305</v>
+        <v>0.02086613536185774</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -2020,37 +2020,37 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.0008058372158538539</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.002336223178052569</v>
       </c>
       <c r="AA6">
-        <v>0.03035614864936783</v>
+        <v>0.03288552430098768</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.001010689354285564</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.007924130025673343</v>
+        <v>0.01306368974901474</v>
       </c>
       <c r="AE6">
-        <v>0.01646247553892241</v>
+        <v>0.02060851551571737</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.005775729844562093</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.001165393376619881</v>
       </c>
       <c r="AH6">
-        <v>0.00280492242340822</v>
+        <v>0.00854015186187522</v>
       </c>
       <c r="AI6">
-        <v>0.004449735077979746</v>
+        <v>0.009993574527701204</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2208,61 +2208,61 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1387196752480976</v>
+        <v>0.1715902582446719</v>
       </c>
       <c r="F7">
-        <v>0.04481170016716933</v>
+        <v>0.04236445666455035</v>
       </c>
       <c r="G7">
-        <v>0.1850952233739618</v>
+        <v>0.235407174487597</v>
       </c>
       <c r="H7">
-        <v>0.07352633470198673</v>
+        <v>0.08187837080916083</v>
       </c>
       <c r="I7">
-        <v>0.01402558553583521</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0403315201530307</v>
+        <v>0.03619932688668674</v>
       </c>
       <c r="K7">
-        <v>0.01715512605264083</v>
+        <v>0.00430652861498881</v>
       </c>
       <c r="L7">
-        <v>0.003048328417032273</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.02270230559969822</v>
+        <v>0.01193994550912999</v>
       </c>
       <c r="O7">
-        <v>0.0410825176529513</v>
+        <v>0.03723276684562817</v>
       </c>
       <c r="P7">
-        <v>0.05993030851876018</v>
+        <v>0.0631690185915493</v>
       </c>
       <c r="Q7">
-        <v>0.07709913076190182</v>
+        <v>0.08679485883189737</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.08146399862395122</v>
+        <v>0.09280130873967735</v>
       </c>
       <c r="T7">
-        <v>0.06035648491485172</v>
+        <v>0.06375547556021459</v>
       </c>
       <c r="U7">
-        <v>0.02237810271113384</v>
+        <v>0.01149381323854043</v>
       </c>
       <c r="V7">
-        <v>0.04506073088052294</v>
+        <v>0.04270714527564495</v>
       </c>
       <c r="W7">
-        <v>0.0231114800756625</v>
+        <v>0.01250300630984518</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.01828151826629595</v>
+        <v>0.005856545390217434</v>
       </c>
       <c r="AF7">
-        <v>0.01100017887879885</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.01229742658492594</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.008522322880791145</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2594,100 +2594,100 @@
         <v>0</v>
       </c>
       <c r="AY8">
-        <v>0.2000993044902326</v>
+        <v>0.1632766297411338</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.718315037678254E-05</v>
       </c>
       <c r="BA8">
-        <v>0.2054856369168329</v>
+        <v>0.167402575521495</v>
       </c>
       <c r="BB8">
-        <v>0.04183186985709254</v>
+        <v>0.04204332990461668</v>
       </c>
       <c r="BC8">
-        <v>0.01988531154124779</v>
+        <v>0.02523220454043963</v>
       </c>
       <c r="BD8">
-        <v>0.06303017574367899</v>
+        <v>0.05828129180456027</v>
       </c>
       <c r="BE8">
-        <v>0.0001003212600091581</v>
+        <v>0.01007684636718134</v>
       </c>
       <c r="BF8">
-        <v>0.007635599454835281</v>
+        <v>0.01584889064693136</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>0.001445008142055318</v>
       </c>
       <c r="BH8">
-        <v>0.04497385348350306</v>
+        <v>0.04445009819491595</v>
       </c>
       <c r="BI8">
-        <v>0.04709264832919587</v>
+        <v>0.04607310100288689</v>
       </c>
       <c r="BJ8">
-        <v>0.08434757542924955</v>
+        <v>0.07461047988931173</v>
       </c>
       <c r="BK8">
-        <v>0.07015167870853034</v>
+        <v>0.06373638309498098</v>
       </c>
       <c r="BL8">
-        <v>0.02263769181230395</v>
+        <v>0.02734053556531868</v>
       </c>
       <c r="BM8">
-        <v>0.02564325268861929</v>
+        <v>0.02964280364554537</v>
       </c>
       <c r="BN8">
-        <v>0.08078189032454575</v>
+        <v>0.07187915507556737</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>0.0001952439453678079</v>
       </c>
       <c r="BP8">
-        <v>0.05489482777339035</v>
+        <v>0.05204959238994245</v>
       </c>
       <c r="BQ8">
-        <v>0.002101242928138907</v>
+        <v>0.01160955798978424</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>0.0005753719310560554</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>0.002860464136471756</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>3.198100453765945E-05</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>0.009668739044761178</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>0.004046850483178677</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>0.0001533728556178049</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>0.0004423996668967751</v>
       </c>
       <c r="BY8">
-        <v>0.01134563953337055</v>
+        <v>0.01869079177642866</v>
       </c>
       <c r="BZ8">
-        <v>0.004017602219647085</v>
+        <v>0.01307749459418068</v>
       </c>
       <c r="CA8">
-        <v>3.300919791527504E-06</v>
+        <v>0.01000252851383957</v>
       </c>
       <c r="CB8">
-        <v>0.01394057658578449</v>
+        <v>0.0206785208532372</v>
       </c>
       <c r="CC8">
-        <v>0</v>
+        <v>0.009369103478125331</v>
       </c>
       <c r="CD8">
-        <v>0</v>
+        <v>0.005191471049256933</v>
       </c>
     </row>
     <row r="9" spans="1:82">
@@ -2704,73 +2704,73 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4003857143807686</v>
+        <v>0.4109005655240586</v>
       </c>
       <c r="F9">
-        <v>0.01351764914165353</v>
+        <v>0.01225140155927306</v>
       </c>
       <c r="G9">
-        <v>0.08841598516870317</v>
+        <v>0.08943057896457844</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02084873508228477</v>
+        <v>0.01980573737497364</v>
       </c>
       <c r="J9">
-        <v>0.05790152961148538</v>
+        <v>0.0579868820308271</v>
       </c>
       <c r="K9">
-        <v>0.00162830772032768</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0326819941937747</v>
+        <v>0.03199934877801996</v>
       </c>
       <c r="N9">
-        <v>0.006715797482284529</v>
+        <v>0.005242416530374414</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.0416547557580925</v>
+        <v>0.04124535333996227</v>
       </c>
       <c r="Q9">
-        <v>0.08655069129239977</v>
+        <v>0.08750848223147802</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.01850960087013316</v>
+        <v>0.01739537068446041</v>
       </c>
       <c r="T9">
-        <v>0.02591868043881782</v>
+        <v>0.02503007522896485</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.02468882287021673</v>
+        <v>0.02376276542603357</v>
       </c>
       <c r="W9">
-        <v>0.0002430094666659951</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.05260701344170944</v>
+        <v>0.05253113462150122</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0245387885120681</v>
+        <v>0.02360816214699327</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2779,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.04353599835938164</v>
+        <v>0.04318388447655357</v>
       </c>
       <c r="AE9">
-        <v>0.04433461823998148</v>
+        <v>0.04400682432693901</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.01532230796925097</v>
+        <v>0.01411101675500839</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3979728377996566</v>
+        <v>0.4788943397526547</v>
       </c>
       <c r="F10">
-        <v>0.00142066211139442</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1509615019534682</v>
+        <v>0.172837922341915</v>
       </c>
       <c r="H10">
-        <v>0.0137759502308927</v>
+        <v>0.002859818556136556</v>
       </c>
       <c r="I10">
-        <v>0.01146785420139177</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01941404771797177</v>
+        <v>0.009845635267732392</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2976,34 +2976,34 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.02665651777304434</v>
+        <v>0.01881933046543105</v>
       </c>
       <c r="N10">
-        <v>0.04437459263886546</v>
+        <v>0.04077269749723873</v>
       </c>
       <c r="O10">
-        <v>0.01671764159092214</v>
+        <v>0.00650468576716755</v>
       </c>
       <c r="P10">
-        <v>0.05612824521945204</v>
+        <v>0.05533591901086519</v>
       </c>
       <c r="Q10">
-        <v>0.04250986526659664</v>
+        <v>0.03846222953005315</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.02180193881206879</v>
+        <v>0.01280432293655025</v>
       </c>
       <c r="T10">
-        <v>0.04369742882328799</v>
+        <v>0.03993366583625908</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.02753811959132424</v>
+        <v>0.01991166856870561</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.0118639263542175</v>
+        <v>0.000490748425430506</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.006724638853955893</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -3027,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.03682238298619308</v>
+        <v>0.0314152231857318</v>
       </c>
       <c r="AE10">
-        <v>0.06886060256101947</v>
+        <v>0.07111179285812851</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.001291245514276684</v>
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -3200,25 +3200,25 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4291254824201155</v>
+        <v>0.6374367415968906</v>
       </c>
       <c r="F11">
-        <v>0.01260751448146244</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09875708620862317</v>
+        <v>0.1127502603134658</v>
       </c>
       <c r="H11">
-        <v>0.06260371006813541</v>
+        <v>0.05533197233193286</v>
       </c>
       <c r="I11">
-        <v>0.01227303833240458</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02206314728077119</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.04396379812496531</v>
+        <v>0.02572832403794209</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3227,31 +3227,31 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.02118990698620552</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.02776398080008728</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.04842514376088981</v>
+        <v>0.03281377098246119</v>
       </c>
       <c r="Q11">
-        <v>0.05094939290804212</v>
+        <v>0.03682274828806933</v>
       </c>
       <c r="R11">
-        <v>0.005818550665475593</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005252769444835017</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.07606401244421644</v>
+        <v>0.07670943691905914</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.006566276643595883</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -3275,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.02700574380893646</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.04187236904561102</v>
+        <v>0.02240674553017908</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.007698076575627239</v>
+        <v>0</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -3847,100 +3847,100 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.2914349181495037</v>
+        <v>0.2368253017741181</v>
       </c>
       <c r="AZ2">
-        <v>0.4008253767798444</v>
+        <v>0.3319644606216093</v>
       </c>
       <c r="BA2">
-        <v>0.5086013293874342</v>
+        <v>0.4258470410942377</v>
       </c>
       <c r="BB2">
-        <v>0.5372725064659605</v>
+        <v>0.4581619662732436</v>
       </c>
       <c r="BC2">
-        <v>0.5476486863721156</v>
+        <v>0.4762378006770978</v>
       </c>
       <c r="BD2">
-        <v>0.5476486863721156</v>
+        <v>0.4829244451662211</v>
       </c>
       <c r="BE2">
-        <v>0.5872742332604119</v>
+        <v>0.5237652129368542</v>
       </c>
       <c r="BF2">
-        <v>0.5908618609627795</v>
+        <v>0.5365574821042202</v>
       </c>
       <c r="BG2">
-        <v>0.5908618609627795</v>
+        <v>0.5403815372377324</v>
       </c>
       <c r="BH2">
-        <v>0.5908618609627795</v>
+        <v>0.5477057408822991</v>
       </c>
       <c r="BI2">
-        <v>0.6185486522839773</v>
+        <v>0.5792545135429796</v>
       </c>
       <c r="BJ2">
-        <v>0.809118674419901</v>
+        <v>0.7375761458804837</v>
       </c>
       <c r="BK2">
-        <v>0.809118674419901</v>
+        <v>0.7389473700358681</v>
       </c>
       <c r="BL2">
-        <v>0.9475821436979651</v>
+        <v>0.8567142032043515</v>
       </c>
       <c r="BM2">
-        <v>0.9475821436979651</v>
+        <v>0.8574197790288821</v>
       </c>
       <c r="BN2">
-        <v>0.9666356385931315</v>
+        <v>0.8822492124985897</v>
       </c>
       <c r="BO2">
-        <v>0.9749301802999346</v>
+        <v>0.8987048971422482</v>
       </c>
       <c r="BP2">
-        <v>0.9810627713600011</v>
+        <v>0.9134779244331758</v>
       </c>
       <c r="BQ2">
-        <v>0.9810627713600011</v>
+        <v>0.9135345185897015</v>
       </c>
       <c r="BR2">
-        <v>0.9810627713600011</v>
+        <v>0.9151738689922866</v>
       </c>
       <c r="BS2">
-        <v>0.9810627713600011</v>
+        <v>0.917629301060772</v>
       </c>
       <c r="BT2">
-        <v>0.9810627713600011</v>
+        <v>0.925137150679583</v>
       </c>
       <c r="BU2">
-        <v>0.9862168127579117</v>
+        <v>0.9391485677151959</v>
       </c>
       <c r="BV2">
-        <v>0.9862168127579117</v>
+        <v>0.9391541808093576</v>
       </c>
       <c r="BW2">
-        <v>0.9862168127579117</v>
+        <v>0.9429510957615174</v>
       </c>
       <c r="BX2">
-        <v>0.9946815797497367</v>
+        <v>0.9595392676235567</v>
       </c>
       <c r="BY2">
-        <v>0.9953771336387489</v>
+        <v>0.9700806208072352</v>
       </c>
       <c r="BZ2">
-        <v>0.9953771336387489</v>
+        <v>0.973954576675199</v>
       </c>
       <c r="CA2">
-        <v>0.9953771336387489</v>
+        <v>0.9786488027894359</v>
       </c>
       <c r="CB2">
-        <v>0.9953771336387489</v>
+        <v>0.9858175817466007</v>
       </c>
       <c r="CC2">
-        <v>0.9953771336387489</v>
+        <v>0.986401999238422</v>
       </c>
       <c r="CD2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:82">
@@ -4095,97 +4095,97 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.4147662026012903</v>
+        <v>0.329495479742101</v>
       </c>
       <c r="AZ3">
-        <v>0.4537201888453407</v>
+        <v>0.3695018362023305</v>
       </c>
       <c r="BA3">
-        <v>0.5791219662624356</v>
+        <v>0.476099150026623</v>
       </c>
       <c r="BB3">
-        <v>0.5974506663078782</v>
+        <v>0.5002177951267808</v>
       </c>
       <c r="BC3">
-        <v>0.5979220172289064</v>
+        <v>0.5105808779616315</v>
       </c>
       <c r="BD3">
-        <v>0.5979220172289064</v>
+        <v>0.511207689924149</v>
       </c>
       <c r="BE3">
-        <v>0.5979220172289064</v>
+        <v>0.5172377730465819</v>
       </c>
       <c r="BF3">
-        <v>0.5979220172289064</v>
+        <v>0.5202693483197535</v>
       </c>
       <c r="BG3">
-        <v>0.5979220172289064</v>
+        <v>0.5222580931903921</v>
       </c>
       <c r="BH3">
-        <v>0.5979220172289064</v>
+        <v>0.5302610516282399</v>
       </c>
       <c r="BI3">
-        <v>0.6243918192447946</v>
+        <v>0.5606508086544995</v>
       </c>
       <c r="BJ3">
-        <v>0.7659818744994387</v>
+        <v>0.6797179948104053</v>
       </c>
       <c r="BK3">
-        <v>0.7703050352328028</v>
+        <v>0.6930481367164857</v>
       </c>
       <c r="BL3">
-        <v>0.8840663177462303</v>
+        <v>0.7906787471778771</v>
       </c>
       <c r="BM3">
-        <v>0.8959980678628702</v>
+        <v>0.8098698051854247</v>
       </c>
       <c r="BN3">
-        <v>0.9405669078294682</v>
+        <v>0.8542012980056473</v>
       </c>
       <c r="BO3">
-        <v>0.9405669078294682</v>
+        <v>0.862686680927647</v>
       </c>
       <c r="BP3">
-        <v>0.9411544195169813</v>
+        <v>0.873139242701675</v>
       </c>
       <c r="BQ3">
-        <v>0.9411544195169813</v>
+        <v>0.8763213834881246</v>
       </c>
       <c r="BR3">
-        <v>0.9411544195169813</v>
+        <v>0.8763337204340389</v>
       </c>
       <c r="BS3">
-        <v>0.9435988404572264</v>
+        <v>0.8882166642132021</v>
       </c>
       <c r="BT3">
-        <v>0.9435988404572264</v>
+        <v>0.893998709844067</v>
       </c>
       <c r="BU3">
-        <v>0.9591522868128787</v>
+        <v>0.9159795698415221</v>
       </c>
       <c r="BV3">
-        <v>0.9591522868128787</v>
+        <v>0.9159795698578002</v>
       </c>
       <c r="BW3">
-        <v>0.9591522868128787</v>
+        <v>0.9232543585077585</v>
       </c>
       <c r="BX3">
-        <v>0.9738909368805427</v>
+        <v>0.9446075788149731</v>
       </c>
       <c r="BY3">
-        <v>1</v>
+        <v>0.9747194577353167</v>
       </c>
       <c r="BZ3">
-        <v>1</v>
+        <v>0.9809846130933402</v>
       </c>
       <c r="CA3">
-        <v>1</v>
+        <v>0.9830747505268564</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>0.986032335400486</v>
       </c>
       <c r="CC3">
-        <v>1</v>
+        <v>0.9907734405928986</v>
       </c>
       <c r="CD3">
         <v>1</v>
@@ -4202,241 +4202,241 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01592003468487067</v>
+        <v>0.02197098574988667</v>
       </c>
       <c r="E4">
-        <v>0.206235896357928</v>
+        <v>0.1804585295408112</v>
       </c>
       <c r="F4">
-        <v>0.2232130575477793</v>
+        <v>0.2032570309163078</v>
       </c>
       <c r="G4">
-        <v>0.3239055125777838</v>
+        <v>0.2915876265386809</v>
       </c>
       <c r="H4">
-        <v>0.3239055125777838</v>
+        <v>0.2962535134981146</v>
       </c>
       <c r="I4">
-        <v>0.3770174055539653</v>
+        <v>0.3473381802847827</v>
       </c>
       <c r="J4">
-        <v>0.3886395784319495</v>
+        <v>0.3659448120191807</v>
       </c>
       <c r="K4">
-        <v>0.3886395784319495</v>
+        <v>0.3659448120191807</v>
       </c>
       <c r="L4">
-        <v>0.3886395784319495</v>
+        <v>0.3659448120191807</v>
       </c>
       <c r="M4">
-        <v>0.3909591979329324</v>
+        <v>0.3772694313915095</v>
       </c>
       <c r="N4">
-        <v>0.3909591979329324</v>
+        <v>0.3772694313915095</v>
       </c>
       <c r="O4">
-        <v>0.4093361152869434</v>
+        <v>0.4011636579166725</v>
       </c>
       <c r="P4">
-        <v>0.686029555506011</v>
+        <v>0.6272673248607014</v>
       </c>
       <c r="Q4">
-        <v>0.6923279051578052</v>
+        <v>0.6417064828945525</v>
       </c>
       <c r="R4">
-        <v>0.7208904154165767</v>
+        <v>0.6735739626160738</v>
       </c>
       <c r="S4">
-        <v>0.7647815023236841</v>
+        <v>0.7174406086011366</v>
       </c>
       <c r="T4">
-        <v>0.8328203788983343</v>
+        <v>0.780210075752529</v>
       </c>
       <c r="U4">
-        <v>0.8676576516364213</v>
+        <v>0.8169894217210519</v>
       </c>
       <c r="V4">
-        <v>0.9642414186766627</v>
+        <v>0.9021037480546823</v>
       </c>
       <c r="W4">
-        <v>0.9642414186766627</v>
+        <v>0.9060860477759272</v>
       </c>
       <c r="X4">
-        <v>0.9642414186766627</v>
+        <v>0.912354018178079</v>
       </c>
       <c r="Y4">
-        <v>0.9642414186766627</v>
+        <v>0.912354018178079</v>
       </c>
       <c r="Z4">
-        <v>0.9642414186766627</v>
+        <v>0.912354018178079</v>
       </c>
       <c r="AA4">
-        <v>0.9642414186766627</v>
+        <v>0.9133750140355856</v>
       </c>
       <c r="AB4">
-        <v>0.9642414186766627</v>
+        <v>0.9133750140355856</v>
       </c>
       <c r="AC4">
-        <v>0.9793495845670521</v>
+        <v>0.9347104711990514</v>
       </c>
       <c r="AD4">
-        <v>0.986174985366891</v>
+        <v>0.9495622033746421</v>
       </c>
       <c r="AE4">
-        <v>0.986174985366891</v>
+        <v>0.957650443613878</v>
       </c>
       <c r="AF4">
-        <v>0.986174985366891</v>
+        <v>0.963480431830099</v>
       </c>
       <c r="AG4">
-        <v>0.986174985366891</v>
+        <v>0.9720350734828527</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9923660834865718</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AW4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BG4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BH4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BK4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BM4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BW4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BY4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="BZ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CA4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CB4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CC4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CD4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:82">
@@ -4591,97 +4591,97 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.3493494273984147</v>
+        <v>0.2855194562293229</v>
       </c>
       <c r="AZ5">
-        <v>0.3493494273984147</v>
+        <v>0.2938444832757984</v>
       </c>
       <c r="BA5">
-        <v>0.5280353878567882</v>
+        <v>0.4447677389053531</v>
       </c>
       <c r="BB5">
-        <v>0.5469868990631349</v>
+        <v>0.4697141211026301</v>
       </c>
       <c r="BC5">
-        <v>0.5597351924131925</v>
+        <v>0.489768246216893</v>
       </c>
       <c r="BD5">
-        <v>0.5597351924131925</v>
+        <v>0.4934863053763092</v>
       </c>
       <c r="BE5">
-        <v>0.5597351924131925</v>
+        <v>0.495176630576795</v>
       </c>
       <c r="BF5">
-        <v>0.5597351924131925</v>
+        <v>0.5003349453857235</v>
       </c>
       <c r="BG5">
-        <v>0.5597351924131925</v>
+        <v>0.5050520881581346</v>
       </c>
       <c r="BH5">
-        <v>0.5597351924131925</v>
+        <v>0.5059507896442806</v>
       </c>
       <c r="BI5">
-        <v>0.5893974222055</v>
+        <v>0.5393443342789064</v>
       </c>
       <c r="BJ5">
-        <v>0.7369208786657715</v>
+        <v>0.665690832418862</v>
       </c>
       <c r="BK5">
-        <v>0.7673839646378922</v>
+        <v>0.6997159838112924</v>
       </c>
       <c r="BL5">
-        <v>0.8081328292623944</v>
+        <v>0.7418531626437088</v>
       </c>
       <c r="BM5">
-        <v>0.8780267429955747</v>
+        <v>0.8069760041176789</v>
       </c>
       <c r="BN5">
-        <v>0.8892978479562664</v>
+        <v>0.8258651233385095</v>
       </c>
       <c r="BO5">
-        <v>0.8892978479562664</v>
+        <v>0.8261937983437967</v>
       </c>
       <c r="BP5">
-        <v>0.8984387608549652</v>
+        <v>0.8434029109221233</v>
       </c>
       <c r="BQ5">
-        <v>0.8984387608549652</v>
+        <v>0.8486762953197571</v>
       </c>
       <c r="BR5">
-        <v>0.8984387608549652</v>
+        <v>0.8493921507669567</v>
       </c>
       <c r="BS5">
-        <v>0.9113955506260423</v>
+        <v>0.869610709585814</v>
       </c>
       <c r="BT5">
-        <v>0.9113955506260423</v>
+        <v>0.8701833991226391</v>
       </c>
       <c r="BU5">
-        <v>0.92676629164485</v>
+        <v>0.8923057553517046</v>
       </c>
       <c r="BV5">
-        <v>0.92676629164485</v>
+        <v>0.8963831843449406</v>
       </c>
       <c r="BW5">
-        <v>0.9365198071591397</v>
+        <v>0.9140754347969691</v>
       </c>
       <c r="BX5">
-        <v>0.9719418480913826</v>
+        <v>0.9520115374231063</v>
       </c>
       <c r="BY5">
-        <v>0.9980856776440983</v>
+        <v>0.9826302450470392</v>
       </c>
       <c r="BZ5">
-        <v>0.9980856776440983</v>
+        <v>0.984300649713105</v>
       </c>
       <c r="CA5">
-        <v>0.9980856776440983</v>
+        <v>0.9855100512255003</v>
       </c>
       <c r="CB5">
-        <v>0.9980856776440983</v>
+        <v>0.9857716476947487</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>0.9972814055852182</v>
       </c>
       <c r="CD5">
         <v>1</v>
@@ -4701,238 +4701,238 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2401219796320955</v>
+        <v>0.2182430557005379</v>
       </c>
       <c r="F6">
-        <v>0.2714183132713225</v>
+        <v>0.2519593653013181</v>
       </c>
       <c r="G6">
-        <v>0.4740774859665025</v>
+        <v>0.4370987769021819</v>
       </c>
       <c r="H6">
-        <v>0.5261029029653789</v>
+        <v>0.4891321389119242</v>
       </c>
       <c r="I6">
-        <v>0.5459680440046528</v>
+        <v>0.51274738662215</v>
       </c>
       <c r="J6">
-        <v>0.5459680440046528</v>
+        <v>0.51274738662215</v>
       </c>
       <c r="K6">
-        <v>0.5459680440046528</v>
+        <v>0.51274738662215</v>
       </c>
       <c r="L6">
-        <v>0.5459680440046528</v>
+        <v>0.5142241385022587</v>
       </c>
       <c r="M6">
-        <v>0.5459680440046528</v>
+        <v>0.5142241385022587</v>
       </c>
       <c r="N6">
-        <v>0.5459680440046528</v>
+        <v>0.5144423111468052</v>
       </c>
       <c r="O6">
-        <v>0.6181619045701332</v>
+        <v>0.5842973216784398</v>
       </c>
       <c r="P6">
-        <v>0.7854865729992381</v>
+        <v>0.7382137430844619</v>
       </c>
       <c r="Q6">
-        <v>0.788036804797872</v>
+        <v>0.7465288400589056</v>
       </c>
       <c r="R6">
-        <v>0.8715662125231692</v>
+        <v>0.8264003963204301</v>
       </c>
       <c r="S6">
-        <v>0.9212485689347177</v>
+        <v>0.8763633356862555</v>
       </c>
       <c r="T6">
-        <v>0.9212485689347177</v>
+        <v>0.8795771987177943</v>
       </c>
       <c r="U6">
-        <v>0.9212485689347177</v>
+        <v>0.882948535713472</v>
       </c>
       <c r="V6">
-        <v>0.9380025882846482</v>
+        <v>0.9038146710753298</v>
       </c>
       <c r="W6">
-        <v>0.9380025882846482</v>
+        <v>0.9038146710753298</v>
       </c>
       <c r="X6">
-        <v>0.9380025882846482</v>
+        <v>0.9038146710753298</v>
       </c>
       <c r="Y6">
-        <v>0.9380025882846482</v>
+        <v>0.9046205082911836</v>
       </c>
       <c r="Z6">
-        <v>0.9380025882846482</v>
+        <v>0.9069567314692362</v>
       </c>
       <c r="AA6">
-        <v>0.9683587369340161</v>
+        <v>0.9398422557702238</v>
       </c>
       <c r="AB6">
-        <v>0.9683587369340161</v>
+        <v>0.9408529451245095</v>
       </c>
       <c r="AC6">
-        <v>0.9683587369340161</v>
+        <v>0.9408529451245095</v>
       </c>
       <c r="AD6">
-        <v>0.9762828669596895</v>
+        <v>0.9539166348735242</v>
       </c>
       <c r="AE6">
-        <v>0.9927453424986119</v>
+        <v>0.9745251503892416</v>
       </c>
       <c r="AF6">
-        <v>0.9927453424986119</v>
+        <v>0.9803008802338037</v>
       </c>
       <c r="AG6">
-        <v>0.9927453424986119</v>
+        <v>0.9814662736104236</v>
       </c>
       <c r="AH6">
-        <v>0.9955502649220201</v>
+        <v>0.9900064254722988</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:82">
@@ -4949,94 +4949,94 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1387196752480976</v>
+        <v>0.1715902582446719</v>
       </c>
       <c r="F7">
-        <v>0.1835313754152669</v>
+        <v>0.2139547149092222</v>
       </c>
       <c r="G7">
-        <v>0.3686265987892287</v>
+        <v>0.4493618893968193</v>
       </c>
       <c r="H7">
-        <v>0.4421529334912154</v>
+        <v>0.53124026020598</v>
       </c>
       <c r="I7">
-        <v>0.4561785190270506</v>
+        <v>0.53124026020598</v>
       </c>
       <c r="J7">
-        <v>0.4965100391800814</v>
+        <v>0.5674395870926667</v>
       </c>
       <c r="K7">
-        <v>0.5136651652327222</v>
+        <v>0.5717461157076555</v>
       </c>
       <c r="L7">
-        <v>0.5167134936497545</v>
+        <v>0.5717461157076555</v>
       </c>
       <c r="M7">
-        <v>0.5167134936497545</v>
+        <v>0.5717461157076555</v>
       </c>
       <c r="N7">
-        <v>0.5394157992494527</v>
+        <v>0.5836860612167856</v>
       </c>
       <c r="O7">
-        <v>0.5804983169024041</v>
+        <v>0.6209188280624137</v>
       </c>
       <c r="P7">
-        <v>0.6404286254211642</v>
+        <v>0.684087846653963</v>
       </c>
       <c r="Q7">
-        <v>0.717527756183066</v>
+        <v>0.7708827054858605</v>
       </c>
       <c r="R7">
-        <v>0.717527756183066</v>
+        <v>0.7708827054858605</v>
       </c>
       <c r="S7">
-        <v>0.7989917548070172</v>
+        <v>0.8636840142255378</v>
       </c>
       <c r="T7">
-        <v>0.8593482397218689</v>
+        <v>0.9274394897857523</v>
       </c>
       <c r="U7">
-        <v>0.8817263424330027</v>
+        <v>0.9389333030242928</v>
       </c>
       <c r="V7">
-        <v>0.9267870733135257</v>
+        <v>0.9816404482999377</v>
       </c>
       <c r="W7">
-        <v>0.9498985533891883</v>
+        <v>0.9941434546097828</v>
       </c>
       <c r="X7">
-        <v>0.9498985533891883</v>
+        <v>0.9941434546097828</v>
       </c>
       <c r="Y7">
-        <v>0.9498985533891883</v>
+        <v>0.9941434546097828</v>
       </c>
       <c r="Z7">
-        <v>0.9498985533891883</v>
+        <v>0.9941434546097828</v>
       </c>
       <c r="AA7">
-        <v>0.9498985533891883</v>
+        <v>0.9941434546097828</v>
       </c>
       <c r="AB7">
-        <v>0.9498985533891883</v>
+        <v>0.9941434546097828</v>
       </c>
       <c r="AC7">
-        <v>0.9498985533891883</v>
+        <v>0.9941434546097828</v>
       </c>
       <c r="AD7">
-        <v>0.9498985533891883</v>
+        <v>0.9941434546097828</v>
       </c>
       <c r="AE7">
-        <v>0.9681800716554843</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9791802505342831</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9791802505342831</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9914776771192091</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -5335,100 +5335,100 @@
         <v>0</v>
       </c>
       <c r="AY8">
-        <v>0.2000993044902326</v>
+        <v>0.1632766297411338</v>
       </c>
       <c r="AZ8">
-        <v>0.2000993044902326</v>
+        <v>0.1632938128915106</v>
       </c>
       <c r="BA8">
-        <v>0.4055849414070656</v>
+        <v>0.3306963884130056</v>
       </c>
       <c r="BB8">
-        <v>0.4474168112641581</v>
+        <v>0.3727397183176223</v>
       </c>
       <c r="BC8">
-        <v>0.4673021228054059</v>
+        <v>0.3979719228580619</v>
       </c>
       <c r="BD8">
-        <v>0.5303322985490849</v>
+        <v>0.4562532146626221</v>
       </c>
       <c r="BE8">
-        <v>0.5304326198090941</v>
+        <v>0.4663300610298035</v>
       </c>
       <c r="BF8">
-        <v>0.5380682192639293</v>
+        <v>0.4821789516767349</v>
       </c>
       <c r="BG8">
-        <v>0.5380682192639293</v>
+        <v>0.4836239598187902</v>
       </c>
       <c r="BH8">
-        <v>0.5830420727474324</v>
+        <v>0.5280740580137061</v>
       </c>
       <c r="BI8">
-        <v>0.6301347210766283</v>
+        <v>0.574147159016593</v>
       </c>
       <c r="BJ8">
-        <v>0.7144822965058778</v>
+        <v>0.6487576389059047</v>
       </c>
       <c r="BK8">
-        <v>0.7846339752144081</v>
+        <v>0.7124940220008856</v>
       </c>
       <c r="BL8">
-        <v>0.807271667026712</v>
+        <v>0.7398345575662043</v>
       </c>
       <c r="BM8">
-        <v>0.8329149197153314</v>
+        <v>0.7694773612117497</v>
       </c>
       <c r="BN8">
-        <v>0.9136968100398771</v>
+        <v>0.8413565162873171</v>
       </c>
       <c r="BO8">
-        <v>0.9136968100398771</v>
+        <v>0.841551760232685</v>
       </c>
       <c r="BP8">
-        <v>0.9685916378132675</v>
+        <v>0.8936013526226274</v>
       </c>
       <c r="BQ8">
-        <v>0.9706928807414065</v>
+        <v>0.9052109106124117</v>
       </c>
       <c r="BR8">
-        <v>0.9706928807414065</v>
+        <v>0.9057862825434677</v>
       </c>
       <c r="BS8">
-        <v>0.9706928807414065</v>
+        <v>0.9086467466799395</v>
       </c>
       <c r="BT8">
-        <v>0.9706928807414065</v>
+        <v>0.9086787276844771</v>
       </c>
       <c r="BU8">
-        <v>0.9706928807414065</v>
+        <v>0.9183474667292383</v>
       </c>
       <c r="BV8">
-        <v>0.9706928807414065</v>
+        <v>0.9223943172124169</v>
       </c>
       <c r="BW8">
-        <v>0.9706928807414065</v>
+        <v>0.9225476900680347</v>
       </c>
       <c r="BX8">
-        <v>0.9706928807414065</v>
+        <v>0.9229900897349315</v>
       </c>
       <c r="BY8">
-        <v>0.982038520274777</v>
+        <v>0.9416808815113601</v>
       </c>
       <c r="BZ8">
-        <v>0.9860561224944241</v>
+        <v>0.9547583761055408</v>
       </c>
       <c r="CA8">
-        <v>0.9860594234142156</v>
+        <v>0.9647609046193804</v>
       </c>
       <c r="CB8">
-        <v>1</v>
+        <v>0.9854394254726175</v>
       </c>
       <c r="CC8">
-        <v>1</v>
+        <v>0.9948085289507429</v>
       </c>
       <c r="CD8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:82">
@@ -5445,238 +5445,238 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4003857143807686</v>
+        <v>0.4109005655240586</v>
       </c>
       <c r="F9">
-        <v>0.4139033635224221</v>
+        <v>0.4231519670833317</v>
       </c>
       <c r="G9">
-        <v>0.5023193486911253</v>
+        <v>0.5125825460479101</v>
       </c>
       <c r="H9">
-        <v>0.5023193486911253</v>
+        <v>0.5125825460479101</v>
       </c>
       <c r="I9">
-        <v>0.5231680837734101</v>
+        <v>0.5323882834228837</v>
       </c>
       <c r="J9">
-        <v>0.5810696133848955</v>
+        <v>0.5903751654537108</v>
       </c>
       <c r="K9">
-        <v>0.5826979211052231</v>
+        <v>0.5903751654537108</v>
       </c>
       <c r="L9">
-        <v>0.5826979211052231</v>
+        <v>0.5903751654537108</v>
       </c>
       <c r="M9">
-        <v>0.6153799152989978</v>
+        <v>0.6223745142317307</v>
       </c>
       <c r="N9">
-        <v>0.6220957127812824</v>
+        <v>0.6276169307621051</v>
       </c>
       <c r="O9">
-        <v>0.6220957127812824</v>
+        <v>0.6276169307621051</v>
       </c>
       <c r="P9">
-        <v>0.6637504685393749</v>
+        <v>0.6688622841020674</v>
       </c>
       <c r="Q9">
-        <v>0.7503011598317747</v>
+        <v>0.7563707663335454</v>
       </c>
       <c r="R9">
-        <v>0.7503011598317747</v>
+        <v>0.7563707663335454</v>
       </c>
       <c r="S9">
-        <v>0.7688107607019079</v>
+        <v>0.7737661370180058</v>
       </c>
       <c r="T9">
-        <v>0.7947294411407257</v>
+        <v>0.7987962122469706</v>
       </c>
       <c r="U9">
-        <v>0.7947294411407257</v>
+        <v>0.7987962122469706</v>
       </c>
       <c r="V9">
-        <v>0.8194182640109425</v>
+        <v>0.8225589776730042</v>
       </c>
       <c r="W9">
-        <v>0.8196612734776085</v>
+        <v>0.8225589776730042</v>
       </c>
       <c r="X9">
-        <v>0.8196612734776085</v>
+        <v>0.8225589776730042</v>
       </c>
       <c r="Y9">
-        <v>0.872268286919318</v>
+        <v>0.8750901122945054</v>
       </c>
       <c r="Z9">
-        <v>0.872268286919318</v>
+        <v>0.8750901122945054</v>
       </c>
       <c r="AA9">
-        <v>0.8968070754313862</v>
+        <v>0.8986982744414986</v>
       </c>
       <c r="AB9">
-        <v>0.8968070754313862</v>
+        <v>0.8986982744414986</v>
       </c>
       <c r="AC9">
-        <v>0.8968070754313862</v>
+        <v>0.8986982744414986</v>
       </c>
       <c r="AD9">
-        <v>0.9403430737907678</v>
+        <v>0.9418821589180522</v>
       </c>
       <c r="AE9">
-        <v>0.9846776920307493</v>
+        <v>0.9858889832449912</v>
       </c>
       <c r="AF9">
-        <v>0.9846776920307493</v>
+        <v>0.9858889832449912</v>
       </c>
       <c r="AG9">
-        <v>0.9846776920307493</v>
+        <v>0.9858889832449912</v>
       </c>
       <c r="AH9">
-        <v>0.9846776920307493</v>
+        <v>0.9858889832449912</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AY9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BB9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BK9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BL9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BM9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BX9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BY9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="CA9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="CC9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="CD9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:82">
@@ -5693,238 +5693,238 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3979728377996566</v>
+        <v>0.4788943397526547</v>
       </c>
       <c r="F10">
-        <v>0.399393499911051</v>
+        <v>0.4788943397526547</v>
       </c>
       <c r="G10">
-        <v>0.5503550018645192</v>
+        <v>0.6517322620945697</v>
       </c>
       <c r="H10">
-        <v>0.564130952095412</v>
+        <v>0.6545920806507063</v>
       </c>
       <c r="I10">
-        <v>0.5755988062968037</v>
+        <v>0.6545920806507063</v>
       </c>
       <c r="J10">
-        <v>0.5950128540147754</v>
+        <v>0.6644377159184387</v>
       </c>
       <c r="K10">
-        <v>0.5950128540147754</v>
+        <v>0.6644377159184387</v>
       </c>
       <c r="L10">
-        <v>0.5950128540147754</v>
+        <v>0.6644377159184387</v>
       </c>
       <c r="M10">
-        <v>0.6216693717878198</v>
+        <v>0.6832570463838697</v>
       </c>
       <c r="N10">
-        <v>0.6660439644266852</v>
+        <v>0.7240297438811085</v>
       </c>
       <c r="O10">
-        <v>0.6827616060176074</v>
+        <v>0.7305344296482761</v>
       </c>
       <c r="P10">
-        <v>0.7388898512370594</v>
+        <v>0.7858703486591413</v>
       </c>
       <c r="Q10">
-        <v>0.781399716503656</v>
+        <v>0.8243325781891945</v>
       </c>
       <c r="R10">
-        <v>0.781399716503656</v>
+        <v>0.8243325781891945</v>
       </c>
       <c r="S10">
-        <v>0.8032016553157248</v>
+        <v>0.8371369011257447</v>
       </c>
       <c r="T10">
-        <v>0.8468990841390128</v>
+        <v>0.8770705669620038</v>
       </c>
       <c r="U10">
-        <v>0.8468990841390128</v>
+        <v>0.8770705669620038</v>
       </c>
       <c r="V10">
-        <v>0.8744372037303371</v>
+        <v>0.8969822355307094</v>
       </c>
       <c r="W10">
-        <v>0.8744372037303371</v>
+        <v>0.8969822355307094</v>
       </c>
       <c r="X10">
-        <v>0.8744372037303371</v>
+        <v>0.8969822355307094</v>
       </c>
       <c r="Y10">
-        <v>0.8863011300845546</v>
+        <v>0.8974729839561399</v>
       </c>
       <c r="Z10">
-        <v>0.8863011300845546</v>
+        <v>0.8974729839561399</v>
       </c>
       <c r="AA10">
-        <v>0.8930257689385105</v>
+        <v>0.8974729839561399</v>
       </c>
       <c r="AB10">
-        <v>0.8930257689385105</v>
+        <v>0.8974729839561399</v>
       </c>
       <c r="AC10">
-        <v>0.8930257689385105</v>
+        <v>0.8974729839561399</v>
       </c>
       <c r="AD10">
-        <v>0.9298481519247036</v>
+        <v>0.9288882071418717</v>
       </c>
       <c r="AE10">
-        <v>0.998708754485723</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.998708754485723</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.998708754485723</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.998708754485723</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.998708754485723</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BY10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CA10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CC10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CD10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:82">
@@ -5941,238 +5941,238 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4291254824201155</v>
+        <v>0.6374367415968906</v>
       </c>
       <c r="F11">
-        <v>0.441732996901578</v>
+        <v>0.6374367415968906</v>
       </c>
       <c r="G11">
-        <v>0.5404900831102011</v>
+        <v>0.7501870019103564</v>
       </c>
       <c r="H11">
-        <v>0.6030937931783364</v>
+        <v>0.8055189742422892</v>
       </c>
       <c r="I11">
-        <v>0.615366831510741</v>
+        <v>0.8055189742422892</v>
       </c>
       <c r="J11">
-        <v>0.6374299787915122</v>
+        <v>0.8055189742422892</v>
       </c>
       <c r="K11">
-        <v>0.6813937769164775</v>
+        <v>0.8312472982802314</v>
       </c>
       <c r="L11">
-        <v>0.6813937769164775</v>
+        <v>0.8312472982802314</v>
       </c>
       <c r="M11">
-        <v>0.6813937769164775</v>
+        <v>0.8312472982802314</v>
       </c>
       <c r="N11">
-        <v>0.702583683902683</v>
+        <v>0.8312472982802314</v>
       </c>
       <c r="O11">
-        <v>0.7303476647027702</v>
+        <v>0.8312472982802314</v>
       </c>
       <c r="P11">
-        <v>0.77877280846366</v>
+        <v>0.8640610692626925</v>
       </c>
       <c r="Q11">
-        <v>0.8297222013717022</v>
+        <v>0.9008838175507619</v>
       </c>
       <c r="R11">
-        <v>0.8355407520371777</v>
+        <v>0.9008838175507619</v>
       </c>
       <c r="S11">
-        <v>0.8407935214820127</v>
+        <v>0.9008838175507619</v>
       </c>
       <c r="T11">
-        <v>0.9168575339262292</v>
+        <v>0.977593254469821</v>
       </c>
       <c r="U11">
-        <v>0.9168575339262292</v>
+        <v>0.977593254469821</v>
       </c>
       <c r="V11">
-        <v>0.923423810569825</v>
+        <v>0.977593254469821</v>
       </c>
       <c r="W11">
-        <v>0.923423810569825</v>
+        <v>0.977593254469821</v>
       </c>
       <c r="X11">
-        <v>0.923423810569825</v>
+        <v>0.977593254469821</v>
       </c>
       <c r="Y11">
-        <v>0.923423810569825</v>
+        <v>0.977593254469821</v>
       </c>
       <c r="Z11">
-        <v>0.923423810569825</v>
+        <v>0.977593254469821</v>
       </c>
       <c r="AA11">
-        <v>0.923423810569825</v>
+        <v>0.977593254469821</v>
       </c>
       <c r="AB11">
-        <v>0.923423810569825</v>
+        <v>0.977593254469821</v>
       </c>
       <c r="AC11">
-        <v>0.923423810569825</v>
+        <v>0.977593254469821</v>
       </c>
       <c r="AD11">
-        <v>0.9504295543787615</v>
+        <v>0.977593254469821</v>
       </c>
       <c r="AE11">
-        <v>0.9923019234243725</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9923019234243725</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9923019234243725</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9923019234243725</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9923019234243725</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BY11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CA11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CC11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CD11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6240,16 +6240,16 @@
         <v>48</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5086013293874342</v>
+        <v>0.5237652129368542</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -6281,16 +6281,16 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5791219662624356</v>
+        <v>0.5002177951267808</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.686029555506011</v>
+        <v>0.6272673248607014</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -6363,16 +6363,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5280353878567882</v>
+        <v>0.5003349453857235</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -6404,16 +6404,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5261029029653789</v>
+        <v>0.51274738662215</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -6445,16 +6445,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5136651652327222</v>
+        <v>0.53124026020598</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>49</v>
@@ -6486,16 +6486,16 @@
         <v>48</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5303322985490849</v>
+        <v>0.5280740580137061</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>49</v>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5023193486911253</v>
+        <v>0.5125825460479101</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5503550018645192</v>
+        <v>0.6517322620945697</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -6609,16 +6609,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5404900831102011</v>
+        <v>0.6374367415968906</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>49</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.809118674419901</v>
+        <v>0.7375761458804837</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -6745,16 +6745,16 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7659818744994387</v>
+        <v>0.7906787471778771</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -6786,16 +6786,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7208904154165767</v>
+        <v>0.7174406086011366</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -6827,16 +6827,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7369208786657715</v>
+        <v>0.7418531626437088</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7854865729992381</v>
+        <v>0.7382137430844619</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.717527756183066</v>
+        <v>0.7708827054858605</v>
       </c>
       <c r="G7">
         <v>14</v>
@@ -6950,16 +6950,16 @@
         <v>48</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7144822965058778</v>
+        <v>0.7124940220008856</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>49</v>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7503011598317747</v>
+        <v>0.7563707663335454</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -7032,16 +7032,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7388898512370594</v>
+        <v>0.7240297438811085</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>49</v>
@@ -7073,16 +7073,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.702583683902683</v>
+        <v>0.7501870019103564</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>49</v>
@@ -7168,16 +7168,16 @@
         <v>48</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.809118674419901</v>
+        <v>0.8567142032043515</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -7209,16 +7209,16 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8840663177462303</v>
+        <v>0.8098698051854247</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -7250,16 +7250,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8328203788983343</v>
+        <v>0.8169894217210519</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -7291,16 +7291,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8081328292623944</v>
+        <v>0.8069760041176789</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8715662125231692</v>
+        <v>0.8264003963204301</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -7373,16 +7373,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8593482397218689</v>
+        <v>0.8636840142255378</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>49</v>
@@ -7414,16 +7414,16 @@
         <v>48</v>
       </c>
       <c r="D8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.807271667026712</v>
+        <v>0.8413565162873171</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>49</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8194182640109425</v>
+        <v>0.8225589776730042</v>
       </c>
       <c r="G9">
         <v>19</v>
@@ -7496,16 +7496,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8032016553157248</v>
+        <v>0.8243325781891945</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>49</v>
@@ -7537,16 +7537,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8297222013717022</v>
+        <v>0.8055189742422892</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>49</v>
@@ -7632,16 +7632,16 @@
         <v>48</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9475821436979651</v>
+        <v>0.9134779244331758</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -7673,16 +7673,16 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9405669078294682</v>
+        <v>0.9159795698415221</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9642414186766627</v>
+        <v>0.9021037480546823</v>
       </c>
       <c r="G4">
         <v>19</v>
@@ -7755,16 +7755,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9113955506260423</v>
+        <v>0.9140754347969691</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -7796,16 +7796,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9212485689347177</v>
+        <v>0.9038146710753298</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -7837,16 +7837,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9267870733135257</v>
+        <v>0.9274394897857523</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>49</v>
@@ -7878,16 +7878,16 @@
         <v>48</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9136968100398771</v>
+        <v>0.9052109106124117</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>49</v>
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9403430737907678</v>
+        <v>0.9418821589180522</v>
       </c>
       <c r="G9">
         <v>27</v>
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9298481519247036</v>
+        <v>0.9288882071418717</v>
       </c>
       <c r="G10">
         <v>27</v>
@@ -8001,16 +8001,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9168575339262292</v>
+        <v>0.9008838175507619</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>49</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/49_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/49_455-55R22.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="108">
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
   <si>
     <t>Signal_Value_44</t>
   </si>
@@ -294,40 +297,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>455-55R22.5</t>
@@ -337,9 +343,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -697,15 +700,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC11"/>
+  <dimension ref="A1:CD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:82">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -947,10 +950,13 @@
       <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:82">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1097,105 +1103,108 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.2368253017741181</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0951391588474912</v>
+        <v>0.365003021172796</v>
       </c>
       <c r="AZ2">
-        <v>0.09388258047262835</v>
+        <v>0.1149568721623606</v>
       </c>
       <c r="BA2">
-        <v>0.03231492517900596</v>
+        <v>0.1127392764464058</v>
       </c>
       <c r="BB2">
-        <v>0.0180758344038541</v>
+        <v>0.004085354532923467</v>
       </c>
       <c r="BC2">
-        <v>0.00668664448912337</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.04084076777063304</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01279226916736602</v>
+        <v>0.01913166790606325</v>
       </c>
       <c r="BF2">
-        <v>0.003824055133512251</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.007324203644566706</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.03154877266068062</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.1583216323375041</v>
+        <v>0.002733256982628053</v>
       </c>
       <c r="BJ2">
-        <v>0.001371224155384374</v>
+        <v>0.2264606074945661</v>
       </c>
       <c r="BK2">
-        <v>0.1177668331684835</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0007055758245305599</v>
+        <v>0.1548899433022564</v>
       </c>
       <c r="BM2">
-        <v>0.0248294334697076</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.01645568464365851</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.01477302729092759</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>5.659415652569508E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.00163935040258514</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.002455432068485413</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.007507849618810986</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0140114170356129</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>5.613094161687884E-06</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.003796914952159778</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.01658817186203928</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0105413531836786</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.003873955867963795</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.00469422611423683</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.007168778957164812</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0005844174918212412</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.01359800076157753</v>
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:82">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1342,105 +1351,108 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.329495479742101</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.04000635646022945</v>
+        <v>0.5370863103491953</v>
       </c>
       <c r="AZ3">
-        <v>0.1065973138242925</v>
+        <v>0.01794443467357612</v>
       </c>
       <c r="BA3">
-        <v>0.0241186451001578</v>
+        <v>0.1373622356503486</v>
       </c>
       <c r="BB3">
-        <v>0.01036308283485074</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0006268119625174357</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.006030083122432917</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.003031575273171524</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001988744870638646</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.008002958437847792</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.03038975702625953</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.1190671861559059</v>
+        <v>0.0006989526631475865</v>
       </c>
       <c r="BJ3">
-        <v>0.01333014190608043</v>
+        <v>0.1597245021088572</v>
       </c>
       <c r="BK3">
-        <v>0.09763061046139139</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.01919105800754763</v>
+        <v>0.1212822145785003</v>
       </c>
       <c r="BM3">
-        <v>0.04433149282022249</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.008485382921999724</v>
+        <v>0.02570071711011289</v>
       </c>
       <c r="BO3">
-        <v>0.01045256177402797</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.00318214078644968</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.233694591428661E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01188294377916325</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.005782045630864896</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.02198085999745505</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>1.627808535453858E-11</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.007274788649958393</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0213532203072147</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.03011187892034354</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.006265155358023496</v>
+        <v>0.0002006328662619831</v>
       </c>
       <c r="BZ3">
-        <v>0.002090137433516284</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.00295758487362951</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.004741105192412662</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.009226559407101405</v>
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:82">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1449,22 +1461,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1603003384778613</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02305927267130364</v>
+        <v>0.2495286713400045</v>
       </c>
       <c r="F4">
-        <v>0.0893409288675487</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.004719255791378408</v>
+        <v>0.1133904479962849</v>
       </c>
       <c r="H4">
-        <v>0.05166897776985157</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01881945605070135</v>
+        <v>0.04111543161020382</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1473,40 +1485,40 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01145415138057814</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0241675308231362</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2286898608891743</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.01460431441359875</v>
+        <v>0.3807364720747017</v>
       </c>
       <c r="Q4">
-        <v>0.03223198280197448</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.04436839660137843</v>
+        <v>0.003824845673831459</v>
       </c>
       <c r="S4">
-        <v>0.0634874299251988</v>
+        <v>0.02710899955121854</v>
       </c>
       <c r="T4">
-        <v>0.03720003141399048</v>
+        <v>0.06378956444103699</v>
       </c>
       <c r="U4">
-        <v>0.08608787160330372</v>
+        <v>0.0133562286889855</v>
       </c>
       <c r="V4">
-        <v>0.004027849621279859</v>
+        <v>0.1071493386237327</v>
       </c>
       <c r="W4">
-        <v>0.006339664007662548</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1515,34 +1527,34 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001032674099351991</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.02157949402885073</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0150216076152356</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.008180754253786376</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.005896672142354818</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.00865249040834553</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.02056355791274232</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.007721233932609138</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01078420249680298</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1682,10 +1694,13 @@
       <c r="CC4">
         <v>0</v>
       </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:82">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1832,105 +1847,108 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.2855194562293229</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.00832502704647551</v>
+        <v>0.4766951824814411</v>
       </c>
       <c r="AZ5">
-        <v>0.1509232556295547</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.02494638219727697</v>
+        <v>0.2255935194103057</v>
       </c>
       <c r="BB5">
-        <v>0.0200541251142629</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.00371805915941621</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.001690325200485839</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.005158314808928573</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.004717142772411045</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0008987014861460023</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.03339354463462577</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.1263464981399555</v>
+        <v>0.006330971436515641</v>
       </c>
       <c r="BJ5">
-        <v>0.03402515139243042</v>
+        <v>0.1797433048348955</v>
       </c>
       <c r="BK5">
-        <v>0.04213717883241647</v>
+        <v>0.00750929227012756</v>
       </c>
       <c r="BL5">
-        <v>0.06512284147397009</v>
+        <v>0.02264302986437201</v>
       </c>
       <c r="BM5">
-        <v>0.01888911922083061</v>
+        <v>0.06552490981616109</v>
       </c>
       <c r="BN5">
-        <v>0.0003286750052872244</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.01720911257832653</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.005273384397633783</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0007158554471996387</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.02021855881885723</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0005726895368251104</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.02212235622906554</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.004077428993235881</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0176922504520285</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.03793610262613721</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.03061870762393295</v>
+        <v>0.0148055335800444</v>
       </c>
       <c r="BY5">
-        <v>0.001670404666065819</v>
+        <v>0.001154256306136954</v>
       </c>
       <c r="BZ5">
-        <v>0.001209401512395188</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0002615964692484378</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.01150975789046943</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.002718594414781857</v>
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:82">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1939,19 +1957,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2182430557005379</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03371630960078022</v>
+        <v>0.3083604595925675</v>
       </c>
       <c r="F6">
-        <v>0.1851394116008638</v>
+        <v>0.007431850034257923</v>
       </c>
       <c r="G6">
-        <v>0.05203336200974232</v>
+        <v>0.2543746076725289</v>
       </c>
       <c r="H6">
-        <v>0.02361524771022582</v>
+        <v>0.0373035365466062</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1960,37 +1978,37 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.001476751880108606</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.000218172644546502</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06985501053163469</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.153916421406022</v>
+        <v>0.06636731197800433</v>
       </c>
       <c r="P6">
-        <v>0.008315096974443775</v>
+        <v>0.2034557505193934</v>
       </c>
       <c r="Q6">
-        <v>0.07987155626152448</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0499629393658254</v>
+        <v>0.0827024245987157</v>
       </c>
       <c r="S6">
-        <v>0.003213863031538792</v>
+        <v>0.03392706446003331</v>
       </c>
       <c r="T6">
-        <v>0.003371336995677717</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.02086613536185774</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1999,37 +2017,37 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0008058372158538539</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.002336223178052569</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.03288552430098768</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001010689354285564</v>
+        <v>0.006076994597892644</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01306368974901474</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.02060851551571737</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.005775729844562093</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001165393376619881</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.00854015186187522</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.009993574527701204</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -2172,10 +2190,13 @@
       <c r="CC6">
         <v>0</v>
       </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:81">
+    <row r="7" spans="1:82">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2184,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1715902582446719</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04236445666455035</v>
+        <v>0.2021130548101198</v>
       </c>
       <c r="F7">
-        <v>0.235407174487597</v>
+        <v>0.03279442309633604</v>
       </c>
       <c r="G7">
-        <v>0.08187837080916083</v>
+        <v>0.2857294286791244</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.08456768969490476</v>
       </c>
       <c r="I7">
-        <v>0.03619932688668674</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.00430652861498881</v>
+        <v>0.02471653674885956</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2211,34 +2232,34 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.01193994550912999</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.03723276684562817</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0631690185915493</v>
+        <v>0.02607060565512067</v>
       </c>
       <c r="P7">
-        <v>0.08679485883189737</v>
+        <v>0.06005368491410926</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.0910095381080549</v>
       </c>
       <c r="R7">
-        <v>0.09280130873967735</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.06375547556021459</v>
+        <v>0.09887951351085503</v>
       </c>
       <c r="T7">
-        <v>0.01149381323854043</v>
+        <v>0.06082209254075381</v>
       </c>
       <c r="U7">
-        <v>0.04270714527564495</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.01250300630984518</v>
+        <v>0.03324343224176169</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2262,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.005856545390217434</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -2417,10 +2438,13 @@
       <c r="CC7">
         <v>0</v>
       </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:81">
+    <row r="8" spans="1:82">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2567,105 +2591,108 @@
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>0.1632766297411338</v>
+        <v>0</v>
       </c>
       <c r="AY8">
-        <v>1.718315037678254E-05</v>
+        <v>0.2754772703853151</v>
       </c>
       <c r="AZ8">
-        <v>0.167402575521495</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>0.04204332990461668</v>
+        <v>0.2840054293246532</v>
       </c>
       <c r="BB8">
-        <v>0.02523220454043963</v>
+        <v>0.0248930638095937</v>
       </c>
       <c r="BC8">
-        <v>0.05828129180456027</v>
+        <v>0</v>
       </c>
       <c r="BD8">
-        <v>0.01007684636718134</v>
+        <v>0.05845625811834521</v>
       </c>
       <c r="BE8">
-        <v>0.01584889064693136</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>0.001445008142055318</v>
+        <v>0</v>
       </c>
       <c r="BG8">
-        <v>0.04445009819491595</v>
+        <v>0</v>
       </c>
       <c r="BH8">
-        <v>0.04607310100288689</v>
+        <v>0.02986775412363717</v>
       </c>
       <c r="BI8">
-        <v>0.07461047988931173</v>
+        <v>0.03322243366674948</v>
       </c>
       <c r="BJ8">
-        <v>0.06373638309498098</v>
+        <v>0.09220801317047199</v>
       </c>
       <c r="BK8">
-        <v>0.02734053556531868</v>
+        <v>0.06973170574413402</v>
       </c>
       <c r="BL8">
-        <v>0.02964280364554537</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>0.07187915507556737</v>
+        <v>0</v>
       </c>
       <c r="BN8">
-        <v>0.0001952439453678079</v>
+        <v>0.08656247797283521</v>
       </c>
       <c r="BO8">
-        <v>0.05204959238994245</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>0.01160955798978424</v>
+        <v>0.04557559368426512</v>
       </c>
       <c r="BQ8">
-        <v>0.0005753719310560554</v>
+        <v>0</v>
       </c>
       <c r="BR8">
-        <v>0.002860464136471756</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>3.198100453765945E-05</v>
+        <v>0</v>
       </c>
       <c r="BT8">
-        <v>0.009668739044761178</v>
+        <v>0</v>
       </c>
       <c r="BU8">
-        <v>0.004046850483178677</v>
+        <v>0</v>
       </c>
       <c r="BV8">
-        <v>0.0001533728556178049</v>
+        <v>0</v>
       </c>
       <c r="BW8">
-        <v>0.0004423996668967751</v>
+        <v>0</v>
       </c>
       <c r="BX8">
-        <v>0.01869079177642866</v>
+        <v>0</v>
       </c>
       <c r="BY8">
-        <v>0.01307749459418068</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
-        <v>0.01000252851383957</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>0.0206785208532372</v>
+        <v>0</v>
       </c>
       <c r="CB8">
-        <v>0.009369103478125331</v>
+        <v>0</v>
       </c>
       <c r="CC8">
-        <v>0.005191471049256933</v>
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:81">
+    <row r="9" spans="1:82">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2674,58 +2701,58 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4109005655240586</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01225140155927306</v>
+        <v>0.6143087225937862</v>
       </c>
       <c r="F9">
-        <v>0.08943057896457844</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.1015555110982457</v>
       </c>
       <c r="H9">
-        <v>0.01980573737497364</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0579868820308271</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05140197497306116</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.03199934877801996</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.005242416530374414</v>
+        <v>0.009951165593198537</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04124535333996227</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.08750848223147802</v>
+        <v>0.02469878972874484</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.09848971549085396</v>
       </c>
       <c r="R9">
-        <v>0.01739537068446041</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.02503007522896485</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.02376276542603357</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2734,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.05253113462150122</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.04269991219208449</v>
       </c>
       <c r="Z9">
-        <v>0.02360816214699327</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -2749,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.04318388447655357</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.04400682432693901</v>
+        <v>0.02779079864848695</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.02910340968153815</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2764,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.01411101675500839</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -2907,10 +2934,13 @@
       <c r="CC9">
         <v>0</v>
       </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:81">
+    <row r="10" spans="1:82">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2919,22 +2949,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4788943397526547</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5932030918742679</v>
       </c>
       <c r="F10">
-        <v>0.172837922341915</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002859818556136556</v>
+        <v>0.1981484925365327</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.009845635267732392</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2943,43 +2973,43 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.01881933046543105</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.04077269749723873</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.00650468576716755</v>
+        <v>0.02768000529209327</v>
       </c>
       <c r="O10">
-        <v>0.05533591901086519</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.03846222953005315</v>
+        <v>0.04647806771733325</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.02469767607063404</v>
       </c>
       <c r="R10">
-        <v>0.01280432293655025</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.03993366583625908</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.02659699151488124</v>
       </c>
       <c r="U10">
-        <v>0.01991166856870561</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.0007527952866435876</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.000490748425430506</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2994,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.0314152231857318</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.07111179285812851</v>
+        <v>0.01560146991544608</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.06684140979216788</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -3152,10 +3182,13 @@
       <c r="CC10">
         <v>0</v>
       </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:81">
+    <row r="11" spans="1:82">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3164,28 +3197,28 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6374367415968906</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.625968865417208</v>
       </c>
       <c r="F11">
-        <v>0.1127502603134658</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.05533197233193286</v>
+        <v>0.1125932248788361</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.05641272200208446</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02572832403794209</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0274472493868473</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3197,22 +3230,22 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.03281377098246119</v>
+        <v>0.00227355937553088</v>
       </c>
       <c r="P11">
-        <v>0.03682274828806933</v>
+        <v>0.03437995299824116</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.03830250744854084</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.07670943691905914</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.07732934548484963</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -3242,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.02240674553017908</v>
+        <v>0.001095297757664901</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.02419727525019672</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -3395,6 +3428,9 @@
         <v>0</v>
       </c>
       <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
         <v>0</v>
       </c>
     </row>
@@ -3405,15 +3441,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC11"/>
+  <dimension ref="A1:CD11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:82">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3655,10 +3691,13 @@
       <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:82">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3805,105 +3844,108 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.2368253017741181</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.3319644606216093</v>
+        <v>0.365003021172796</v>
       </c>
       <c r="AZ2">
-        <v>0.4258470410942377</v>
+        <v>0.4799598933351566</v>
       </c>
       <c r="BA2">
-        <v>0.4581619662732436</v>
+        <v>0.5926991697815625</v>
       </c>
       <c r="BB2">
-        <v>0.4762378006770978</v>
+        <v>0.5967845243144859</v>
       </c>
       <c r="BC2">
-        <v>0.4829244451662211</v>
+        <v>0.5967845243144859</v>
       </c>
       <c r="BD2">
-        <v>0.5237652129368542</v>
+        <v>0.5967845243144859</v>
       </c>
       <c r="BE2">
-        <v>0.5365574821042202</v>
+        <v>0.6159161922205492</v>
       </c>
       <c r="BF2">
-        <v>0.5403815372377324</v>
+        <v>0.6159161922205492</v>
       </c>
       <c r="BG2">
-        <v>0.5477057408822991</v>
+        <v>0.6159161922205492</v>
       </c>
       <c r="BH2">
-        <v>0.5792545135429796</v>
+        <v>0.6159161922205492</v>
       </c>
       <c r="BI2">
-        <v>0.7375761458804837</v>
+        <v>0.6186494492031772</v>
       </c>
       <c r="BJ2">
-        <v>0.7389473700358681</v>
+        <v>0.8451100566977433</v>
       </c>
       <c r="BK2">
-        <v>0.8567142032043515</v>
+        <v>0.8451100566977433</v>
       </c>
       <c r="BL2">
-        <v>0.8574197790288821</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM2">
-        <v>0.8822492124985897</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN2">
-        <v>0.8987048971422482</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO2">
-        <v>0.9134779244331758</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP2">
-        <v>0.9135345185897015</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ2">
-        <v>0.9151738689922866</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR2">
-        <v>0.917629301060772</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS2">
-        <v>0.925137150679583</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT2">
-        <v>0.9391485677151959</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU2">
-        <v>0.9391541808093576</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV2">
-        <v>0.9429510957615174</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW2">
-        <v>0.9595392676235567</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX2">
-        <v>0.9700806208072352</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY2">
-        <v>0.973954576675199</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ2">
-        <v>0.9786488027894359</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA2">
-        <v>0.9858175817466007</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB2">
-        <v>0.986401999238422</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CD2">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:82">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4050,105 +4092,108 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.329495479742101</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.3695018362023305</v>
+        <v>0.5370863103491953</v>
       </c>
       <c r="AZ3">
-        <v>0.476099150026623</v>
+        <v>0.5550307450227714</v>
       </c>
       <c r="BA3">
-        <v>0.5002177951267808</v>
+        <v>0.6923929806731199</v>
       </c>
       <c r="BB3">
-        <v>0.5105808779616315</v>
+        <v>0.6923929806731199</v>
       </c>
       <c r="BC3">
-        <v>0.511207689924149</v>
+        <v>0.6923929806731199</v>
       </c>
       <c r="BD3">
-        <v>0.5172377730465819</v>
+        <v>0.6923929806731199</v>
       </c>
       <c r="BE3">
-        <v>0.5202693483197535</v>
+        <v>0.6923929806731199</v>
       </c>
       <c r="BF3">
-        <v>0.5222580931903921</v>
+        <v>0.6923929806731199</v>
       </c>
       <c r="BG3">
-        <v>0.5302610516282399</v>
+        <v>0.6923929806731199</v>
       </c>
       <c r="BH3">
-        <v>0.5606508086544995</v>
+        <v>0.6923929806731199</v>
       </c>
       <c r="BI3">
-        <v>0.6797179948104053</v>
+        <v>0.6930919333362675</v>
       </c>
       <c r="BJ3">
-        <v>0.6930481367164857</v>
+        <v>0.8528164354451246</v>
       </c>
       <c r="BK3">
-        <v>0.7906787471778771</v>
+        <v>0.8528164354451246</v>
       </c>
       <c r="BL3">
-        <v>0.8098698051854247</v>
+        <v>0.9740986500236249</v>
       </c>
       <c r="BM3">
-        <v>0.8542012980056473</v>
+        <v>0.9740986500236249</v>
       </c>
       <c r="BN3">
-        <v>0.862686680927647</v>
+        <v>0.9997993671337378</v>
       </c>
       <c r="BO3">
-        <v>0.873139242701675</v>
+        <v>0.9997993671337378</v>
       </c>
       <c r="BP3">
-        <v>0.8763213834881246</v>
+        <v>0.9997993671337378</v>
       </c>
       <c r="BQ3">
-        <v>0.8763337204340389</v>
+        <v>0.9997993671337378</v>
       </c>
       <c r="BR3">
-        <v>0.8882166642132021</v>
+        <v>0.9997993671337378</v>
       </c>
       <c r="BS3">
-        <v>0.893998709844067</v>
+        <v>0.9997993671337378</v>
       </c>
       <c r="BT3">
-        <v>0.9159795698415221</v>
+        <v>0.9997993671337378</v>
       </c>
       <c r="BU3">
-        <v>0.9159795698578002</v>
+        <v>0.9997993671337378</v>
       </c>
       <c r="BV3">
-        <v>0.9232543585077585</v>
+        <v>0.9997993671337378</v>
       </c>
       <c r="BW3">
-        <v>0.9446075788149731</v>
+        <v>0.9997993671337378</v>
       </c>
       <c r="BX3">
-        <v>0.9747194577353167</v>
+        <v>0.9997993671337378</v>
       </c>
       <c r="BY3">
-        <v>0.9809846130933402</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ3">
-        <v>0.9830747505268564</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA3">
-        <v>0.986032335400486</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB3">
-        <v>0.9907734405928986</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CD3">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:82">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4157,97 +4202,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1603003384778613</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1833596111491649</v>
+        <v>0.2495286713400045</v>
       </c>
       <c r="F4">
-        <v>0.2727005400167136</v>
+        <v>0.2495286713400045</v>
       </c>
       <c r="G4">
-        <v>0.277419795808092</v>
+        <v>0.3629191193362893</v>
       </c>
       <c r="H4">
-        <v>0.3290887735779436</v>
+        <v>0.3629191193362893</v>
       </c>
       <c r="I4">
-        <v>0.3479082296286449</v>
+        <v>0.4040345509464932</v>
       </c>
       <c r="J4">
-        <v>0.3479082296286449</v>
+        <v>0.4040345509464932</v>
       </c>
       <c r="K4">
-        <v>0.3479082296286449</v>
+        <v>0.4040345509464932</v>
       </c>
       <c r="L4">
-        <v>0.3593623810092231</v>
+        <v>0.4040345509464932</v>
       </c>
       <c r="M4">
-        <v>0.3593623810092231</v>
+        <v>0.4040345509464932</v>
       </c>
       <c r="N4">
-        <v>0.3835299118323593</v>
+        <v>0.4040345509464932</v>
       </c>
       <c r="O4">
-        <v>0.6122197727215335</v>
+        <v>0.4040345509464932</v>
       </c>
       <c r="P4">
-        <v>0.6268240871351323</v>
+        <v>0.7847710230211948</v>
       </c>
       <c r="Q4">
-        <v>0.6590560699371067</v>
+        <v>0.7847710230211948</v>
       </c>
       <c r="R4">
-        <v>0.7034244665384852</v>
+        <v>0.7885958686950263</v>
       </c>
       <c r="S4">
-        <v>0.7669118964636841</v>
+        <v>0.8157048682462449</v>
       </c>
       <c r="T4">
-        <v>0.8041119278776746</v>
+        <v>0.8794944326872819</v>
       </c>
       <c r="U4">
-        <v>0.8901997994809783</v>
+        <v>0.8928506613762673</v>
       </c>
       <c r="V4">
-        <v>0.8942276491022582</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9005673131099207</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.9005673131099207</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.9005673131099207</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.9015999872092727</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.9015999872092727</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9231794812381234</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9382010888533591</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9463818431071455</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9522785152495002</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9609310056578457</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9814945635705881</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9892157975031972</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -4390,10 +4435,13 @@
       <c r="CC4">
         <v>1</v>
       </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:82">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4540,105 +4588,108 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.2855194562293229</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.2938444832757984</v>
+        <v>0.4766951824814411</v>
       </c>
       <c r="AZ5">
-        <v>0.4447677389053531</v>
+        <v>0.4766951824814411</v>
       </c>
       <c r="BA5">
-        <v>0.4697141211026301</v>
+        <v>0.7022887018917469</v>
       </c>
       <c r="BB5">
-        <v>0.489768246216893</v>
+        <v>0.7022887018917469</v>
       </c>
       <c r="BC5">
-        <v>0.4934863053763092</v>
+        <v>0.7022887018917469</v>
       </c>
       <c r="BD5">
-        <v>0.495176630576795</v>
+        <v>0.7022887018917469</v>
       </c>
       <c r="BE5">
-        <v>0.5003349453857235</v>
+        <v>0.7022887018917469</v>
       </c>
       <c r="BF5">
-        <v>0.5050520881581346</v>
+        <v>0.7022887018917469</v>
       </c>
       <c r="BG5">
-        <v>0.5059507896442806</v>
+        <v>0.7022887018917469</v>
       </c>
       <c r="BH5">
-        <v>0.5393443342789064</v>
+        <v>0.7022887018917469</v>
       </c>
       <c r="BI5">
-        <v>0.665690832418862</v>
+        <v>0.7086196733282625</v>
       </c>
       <c r="BJ5">
-        <v>0.6997159838112924</v>
+        <v>0.888362978163158</v>
       </c>
       <c r="BK5">
-        <v>0.7418531626437088</v>
+        <v>0.8958722704332855</v>
       </c>
       <c r="BL5">
-        <v>0.8069760041176789</v>
+        <v>0.9185153002976576</v>
       </c>
       <c r="BM5">
-        <v>0.8258651233385095</v>
+        <v>0.9840402101138187</v>
       </c>
       <c r="BN5">
-        <v>0.8261937983437967</v>
+        <v>0.9840402101138187</v>
       </c>
       <c r="BO5">
-        <v>0.8434029109221233</v>
+        <v>0.9840402101138187</v>
       </c>
       <c r="BP5">
-        <v>0.8486762953197571</v>
+        <v>0.9840402101138187</v>
       </c>
       <c r="BQ5">
-        <v>0.8493921507669567</v>
+        <v>0.9840402101138187</v>
       </c>
       <c r="BR5">
-        <v>0.869610709585814</v>
+        <v>0.9840402101138187</v>
       </c>
       <c r="BS5">
-        <v>0.8701833991226391</v>
+        <v>0.9840402101138187</v>
       </c>
       <c r="BT5">
-        <v>0.8923057553517046</v>
+        <v>0.9840402101138187</v>
       </c>
       <c r="BU5">
-        <v>0.8963831843449406</v>
+        <v>0.9840402101138187</v>
       </c>
       <c r="BV5">
-        <v>0.9140754347969691</v>
+        <v>0.9840402101138187</v>
       </c>
       <c r="BW5">
-        <v>0.9520115374231063</v>
+        <v>0.9840402101138187</v>
       </c>
       <c r="BX5">
-        <v>0.9826302450470392</v>
+        <v>0.9988457436938631</v>
       </c>
       <c r="BY5">
-        <v>0.984300649713105</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
-        <v>0.9855100512255003</v>
+        <v>1</v>
       </c>
       <c r="CA5">
-        <v>0.9857716476947487</v>
+        <v>1</v>
       </c>
       <c r="CB5">
-        <v>0.9972814055852182</v>
+        <v>1</v>
       </c>
       <c r="CC5">
         <v>1</v>
       </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:82">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4647,94 +4698,94 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2182430557005379</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2519593653013181</v>
+        <v>0.3083604595925675</v>
       </c>
       <c r="F6">
-        <v>0.4370987769021819</v>
+        <v>0.3157923096268254</v>
       </c>
       <c r="G6">
-        <v>0.4891321389119242</v>
+        <v>0.5701669172993543</v>
       </c>
       <c r="H6">
-        <v>0.51274738662215</v>
+        <v>0.6074704538459605</v>
       </c>
       <c r="I6">
-        <v>0.51274738662215</v>
+        <v>0.6074704538459605</v>
       </c>
       <c r="J6">
-        <v>0.51274738662215</v>
+        <v>0.6074704538459605</v>
       </c>
       <c r="K6">
-        <v>0.5142241385022587</v>
+        <v>0.6074704538459605</v>
       </c>
       <c r="L6">
-        <v>0.5142241385022587</v>
+        <v>0.6074704538459605</v>
       </c>
       <c r="M6">
-        <v>0.5144423111468052</v>
+        <v>0.6074704538459605</v>
       </c>
       <c r="N6">
-        <v>0.5842973216784398</v>
+        <v>0.6074704538459605</v>
       </c>
       <c r="O6">
-        <v>0.7382137430844619</v>
+        <v>0.6738377658239649</v>
       </c>
       <c r="P6">
-        <v>0.7465288400589056</v>
+        <v>0.8772935163433583</v>
       </c>
       <c r="Q6">
-        <v>0.8264003963204301</v>
+        <v>0.8772935163433583</v>
       </c>
       <c r="R6">
-        <v>0.8763633356862555</v>
+        <v>0.959995940942074</v>
       </c>
       <c r="S6">
-        <v>0.8795771987177943</v>
+        <v>0.9939230054021073</v>
       </c>
       <c r="T6">
-        <v>0.882948535713472</v>
+        <v>0.9939230054021073</v>
       </c>
       <c r="U6">
-        <v>0.9038146710753298</v>
+        <v>0.9939230054021073</v>
       </c>
       <c r="V6">
-        <v>0.9038146710753298</v>
+        <v>0.9939230054021073</v>
       </c>
       <c r="W6">
-        <v>0.9038146710753298</v>
+        <v>0.9939230054021073</v>
       </c>
       <c r="X6">
-        <v>0.9046205082911836</v>
+        <v>0.9939230054021073</v>
       </c>
       <c r="Y6">
-        <v>0.9069567314692362</v>
+        <v>0.9939230054021073</v>
       </c>
       <c r="Z6">
-        <v>0.9398422557702238</v>
+        <v>0.9939230054021073</v>
       </c>
       <c r="AA6">
-        <v>0.9408529451245095</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9408529451245095</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9539166348735242</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9745251503892416</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9803008802338037</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9814662736104236</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9900064254722988</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -4880,10 +4931,13 @@
       <c r="CC6">
         <v>1</v>
       </c>
+      <c r="CD6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:81">
+    <row r="7" spans="1:82">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4892,243 +4946,246 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1715902582446719</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2139547149092222</v>
+        <v>0.2021130548101198</v>
       </c>
       <c r="F7">
-        <v>0.4493618893968193</v>
+        <v>0.2349074779064559</v>
       </c>
       <c r="G7">
-        <v>0.53124026020598</v>
+        <v>0.5206369065855803</v>
       </c>
       <c r="H7">
-        <v>0.53124026020598</v>
+        <v>0.6052045962804851</v>
       </c>
       <c r="I7">
-        <v>0.5674395870926667</v>
+        <v>0.6052045962804851</v>
       </c>
       <c r="J7">
-        <v>0.5717461157076555</v>
+        <v>0.6299211330293446</v>
       </c>
       <c r="K7">
-        <v>0.5717461157076555</v>
+        <v>0.6299211330293446</v>
       </c>
       <c r="L7">
-        <v>0.5717461157076555</v>
+        <v>0.6299211330293446</v>
       </c>
       <c r="M7">
-        <v>0.5836860612167856</v>
+        <v>0.6299211330293446</v>
       </c>
       <c r="N7">
-        <v>0.6209188280624137</v>
+        <v>0.6299211330293446</v>
       </c>
       <c r="O7">
-        <v>0.684087846653963</v>
+        <v>0.6559917386844653</v>
       </c>
       <c r="P7">
-        <v>0.7708827054858605</v>
+        <v>0.7160454235985745</v>
       </c>
       <c r="Q7">
-        <v>0.7708827054858605</v>
+        <v>0.8070549617066294</v>
       </c>
       <c r="R7">
-        <v>0.8636840142255378</v>
+        <v>0.8070549617066294</v>
       </c>
       <c r="S7">
-        <v>0.9274394897857523</v>
+        <v>0.9059344752174844</v>
       </c>
       <c r="T7">
-        <v>0.9389333030242928</v>
+        <v>0.9667565677582382</v>
       </c>
       <c r="U7">
-        <v>0.9816404482999377</v>
+        <v>0.9667565677582382</v>
       </c>
       <c r="V7">
-        <v>0.9941434546097828</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W7">
-        <v>0.9941434546097828</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X7">
-        <v>0.9941434546097828</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y7">
-        <v>0.9941434546097828</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.9941434546097828</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.9941434546097828</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.9941434546097828</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.9941434546097828</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CD7">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:81">
+    <row r="8" spans="1:82">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5275,105 +5332,108 @@
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>0.1632766297411338</v>
+        <v>0</v>
       </c>
       <c r="AY8">
-        <v>0.1632938128915106</v>
+        <v>0.2754772703853151</v>
       </c>
       <c r="AZ8">
-        <v>0.3306963884130056</v>
+        <v>0.2754772703853151</v>
       </c>
       <c r="BA8">
-        <v>0.3727397183176223</v>
+        <v>0.5594826997099682</v>
       </c>
       <c r="BB8">
-        <v>0.3979719228580619</v>
+        <v>0.5843757635195619</v>
       </c>
       <c r="BC8">
-        <v>0.4562532146626221</v>
+        <v>0.5843757635195619</v>
       </c>
       <c r="BD8">
-        <v>0.4663300610298035</v>
+        <v>0.6428320216379071</v>
       </c>
       <c r="BE8">
-        <v>0.4821789516767349</v>
+        <v>0.6428320216379071</v>
       </c>
       <c r="BF8">
-        <v>0.4836239598187902</v>
+        <v>0.6428320216379071</v>
       </c>
       <c r="BG8">
-        <v>0.5280740580137061</v>
+        <v>0.6428320216379071</v>
       </c>
       <c r="BH8">
-        <v>0.574147159016593</v>
+        <v>0.6726997757615443</v>
       </c>
       <c r="BI8">
-        <v>0.6487576389059047</v>
+        <v>0.7059222094282938</v>
       </c>
       <c r="BJ8">
-        <v>0.7124940220008856</v>
+        <v>0.7981302225987658</v>
       </c>
       <c r="BK8">
-        <v>0.7398345575662043</v>
+        <v>0.8678619283428998</v>
       </c>
       <c r="BL8">
-        <v>0.7694773612117497</v>
+        <v>0.8678619283428998</v>
       </c>
       <c r="BM8">
-        <v>0.8413565162873171</v>
+        <v>0.8678619283428998</v>
       </c>
       <c r="BN8">
-        <v>0.841551760232685</v>
+        <v>0.954424406315735</v>
       </c>
       <c r="BO8">
-        <v>0.8936013526226274</v>
+        <v>0.954424406315735</v>
       </c>
       <c r="BP8">
-        <v>0.9052109106124117</v>
+        <v>1</v>
       </c>
       <c r="BQ8">
-        <v>0.9057862825434677</v>
+        <v>1</v>
       </c>
       <c r="BR8">
-        <v>0.9086467466799395</v>
+        <v>1</v>
       </c>
       <c r="BS8">
-        <v>0.9086787276844771</v>
+        <v>1</v>
       </c>
       <c r="BT8">
-        <v>0.9183474667292383</v>
+        <v>1</v>
       </c>
       <c r="BU8">
-        <v>0.9223943172124169</v>
+        <v>1</v>
       </c>
       <c r="BV8">
-        <v>0.9225476900680347</v>
+        <v>1</v>
       </c>
       <c r="BW8">
-        <v>0.9229900897349315</v>
+        <v>1</v>
       </c>
       <c r="BX8">
-        <v>0.9416808815113601</v>
+        <v>1</v>
       </c>
       <c r="BY8">
-        <v>0.9547583761055408</v>
+        <v>1</v>
       </c>
       <c r="BZ8">
-        <v>0.9647609046193804</v>
+        <v>1</v>
       </c>
       <c r="CA8">
-        <v>0.9854394254726175</v>
+        <v>1</v>
       </c>
       <c r="CB8">
-        <v>0.9948085289507429</v>
+        <v>1</v>
       </c>
       <c r="CC8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="CD8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:81">
+    <row r="9" spans="1:82">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5382,243 +5442,246 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4109005655240586</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4231519670833317</v>
+        <v>0.6143087225937862</v>
       </c>
       <c r="F9">
-        <v>0.5125825460479101</v>
+        <v>0.6143087225937862</v>
       </c>
       <c r="G9">
-        <v>0.5125825460479101</v>
+        <v>0.7158642336920319</v>
       </c>
       <c r="H9">
-        <v>0.5323882834228837</v>
+        <v>0.7158642336920319</v>
       </c>
       <c r="I9">
-        <v>0.5903751654537108</v>
+        <v>0.7158642336920319</v>
       </c>
       <c r="J9">
-        <v>0.5903751654537108</v>
+        <v>0.7672662086650931</v>
       </c>
       <c r="K9">
-        <v>0.5903751654537108</v>
+        <v>0.7672662086650931</v>
       </c>
       <c r="L9">
-        <v>0.6223745142317307</v>
+        <v>0.7672662086650931</v>
       </c>
       <c r="M9">
-        <v>0.6276169307621051</v>
+        <v>0.7772173742582916</v>
       </c>
       <c r="N9">
-        <v>0.6276169307621051</v>
+        <v>0.7772173742582916</v>
       </c>
       <c r="O9">
-        <v>0.6688622841020674</v>
+        <v>0.7772173742582916</v>
       </c>
       <c r="P9">
-        <v>0.7563707663335454</v>
+        <v>0.8019161639870365</v>
       </c>
       <c r="Q9">
-        <v>0.7563707663335454</v>
+        <v>0.9004058794778904</v>
       </c>
       <c r="R9">
-        <v>0.7737661370180058</v>
+        <v>0.9004058794778904</v>
       </c>
       <c r="S9">
-        <v>0.7987962122469706</v>
+        <v>0.9004058794778904</v>
       </c>
       <c r="T9">
-        <v>0.7987962122469706</v>
+        <v>0.9004058794778904</v>
       </c>
       <c r="U9">
-        <v>0.8225589776730042</v>
+        <v>0.9004058794778904</v>
       </c>
       <c r="V9">
-        <v>0.8225589776730042</v>
+        <v>0.9004058794778904</v>
       </c>
       <c r="W9">
-        <v>0.8225589776730042</v>
+        <v>0.9004058794778904</v>
       </c>
       <c r="X9">
-        <v>0.8750901122945054</v>
+        <v>0.9004058794778904</v>
       </c>
       <c r="Y9">
-        <v>0.8750901122945054</v>
+        <v>0.9431057916699749</v>
       </c>
       <c r="Z9">
-        <v>0.8986982744414986</v>
+        <v>0.9431057916699749</v>
       </c>
       <c r="AA9">
-        <v>0.8986982744414986</v>
+        <v>0.9431057916699749</v>
       </c>
       <c r="AB9">
-        <v>0.8986982744414986</v>
+        <v>0.9431057916699749</v>
       </c>
       <c r="AC9">
-        <v>0.9418821589180522</v>
+        <v>0.9431057916699749</v>
       </c>
       <c r="AD9">
-        <v>0.9858889832449912</v>
+        <v>0.9708965903184619</v>
       </c>
       <c r="AE9">
-        <v>0.9858889832449912</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9858889832449912</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9858889832449912</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AU9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AW9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AX9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AY9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BA9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BB9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BC9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BD9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BE9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BF9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BG9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BH9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BI9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BK9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BL9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BM9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BN9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BP9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BQ9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BR9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BS9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BT9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BU9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BV9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BW9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BX9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BY9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BZ9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="CA9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="CB9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="CC9">
-        <v>0.9999999999999996</v>
+        <v>1</v>
+      </c>
+      <c r="CD9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:81">
+    <row r="10" spans="1:82">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5627,243 +5690,246 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4788943397526547</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4788943397526547</v>
+        <v>0.5932030918742679</v>
       </c>
       <c r="F10">
-        <v>0.6517322620945697</v>
+        <v>0.5932030918742679</v>
       </c>
       <c r="G10">
-        <v>0.6545920806507063</v>
+        <v>0.7913515844108006</v>
       </c>
       <c r="H10">
-        <v>0.6545920806507063</v>
+        <v>0.7913515844108006</v>
       </c>
       <c r="I10">
-        <v>0.6644377159184387</v>
+        <v>0.7913515844108006</v>
       </c>
       <c r="J10">
-        <v>0.6644377159184387</v>
+        <v>0.7913515844108006</v>
       </c>
       <c r="K10">
-        <v>0.6644377159184387</v>
+        <v>0.7913515844108006</v>
       </c>
       <c r="L10">
-        <v>0.6832570463838697</v>
+        <v>0.7913515844108006</v>
       </c>
       <c r="M10">
-        <v>0.7240297438811085</v>
+        <v>0.7913515844108006</v>
       </c>
       <c r="N10">
-        <v>0.7305344296482761</v>
+        <v>0.8190315897028938</v>
       </c>
       <c r="O10">
-        <v>0.7858703486591413</v>
+        <v>0.8190315897028938</v>
       </c>
       <c r="P10">
-        <v>0.8243325781891945</v>
+        <v>0.865509657420227</v>
       </c>
       <c r="Q10">
-        <v>0.8243325781891945</v>
+        <v>0.890207333490861</v>
       </c>
       <c r="R10">
-        <v>0.8371369011257447</v>
+        <v>0.890207333490861</v>
       </c>
       <c r="S10">
-        <v>0.8770705669620038</v>
+        <v>0.890207333490861</v>
       </c>
       <c r="T10">
-        <v>0.8770705669620038</v>
+        <v>0.9168043250057423</v>
       </c>
       <c r="U10">
-        <v>0.8969822355307094</v>
+        <v>0.9168043250057423</v>
       </c>
       <c r="V10">
-        <v>0.8969822355307094</v>
+        <v>0.9175571202923859</v>
       </c>
       <c r="W10">
-        <v>0.8969822355307094</v>
+        <v>0.9175571202923859</v>
       </c>
       <c r="X10">
-        <v>0.8974729839561399</v>
+        <v>0.9175571202923859</v>
       </c>
       <c r="Y10">
-        <v>0.8974729839561399</v>
+        <v>0.9175571202923859</v>
       </c>
       <c r="Z10">
-        <v>0.8974729839561399</v>
+        <v>0.9175571202923859</v>
       </c>
       <c r="AA10">
-        <v>0.8974729839561399</v>
+        <v>0.9175571202923859</v>
       </c>
       <c r="AB10">
-        <v>0.8974729839561399</v>
+        <v>0.9175571202923859</v>
       </c>
       <c r="AC10">
-        <v>0.9288882071418717</v>
+        <v>0.9175571202923859</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.933158590207832</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CD10">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:81">
+    <row r="11" spans="1:82">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5872,85 +5938,85 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6374367415968906</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6374367415968906</v>
+        <v>0.625968865417208</v>
       </c>
       <c r="F11">
-        <v>0.7501870019103564</v>
+        <v>0.625968865417208</v>
       </c>
       <c r="G11">
-        <v>0.8055189742422892</v>
+        <v>0.7385620902960441</v>
       </c>
       <c r="H11">
-        <v>0.8055189742422892</v>
+        <v>0.7949748122981286</v>
       </c>
       <c r="I11">
-        <v>0.8055189742422892</v>
+        <v>0.7949748122981286</v>
       </c>
       <c r="J11">
-        <v>0.8312472982802314</v>
+        <v>0.7949748122981286</v>
       </c>
       <c r="K11">
-        <v>0.8312472982802314</v>
+        <v>0.8224220616849759</v>
       </c>
       <c r="L11">
-        <v>0.8312472982802314</v>
+        <v>0.8224220616849759</v>
       </c>
       <c r="M11">
-        <v>0.8312472982802314</v>
+        <v>0.8224220616849759</v>
       </c>
       <c r="N11">
-        <v>0.8312472982802314</v>
+        <v>0.8224220616849759</v>
       </c>
       <c r="O11">
-        <v>0.8640610692626925</v>
+        <v>0.8246956210605068</v>
       </c>
       <c r="P11">
-        <v>0.9008838175507619</v>
+        <v>0.8590755740587479</v>
       </c>
       <c r="Q11">
-        <v>0.9008838175507619</v>
+        <v>0.8973780815072887</v>
       </c>
       <c r="R11">
-        <v>0.9008838175507619</v>
+        <v>0.8973780815072887</v>
       </c>
       <c r="S11">
-        <v>0.977593254469821</v>
+        <v>0.8973780815072887</v>
       </c>
       <c r="T11">
-        <v>0.977593254469821</v>
+        <v>0.9747074269921383</v>
       </c>
       <c r="U11">
-        <v>0.977593254469821</v>
+        <v>0.9747074269921383</v>
       </c>
       <c r="V11">
-        <v>0.977593254469821</v>
+        <v>0.9747074269921383</v>
       </c>
       <c r="W11">
-        <v>0.977593254469821</v>
+        <v>0.9747074269921383</v>
       </c>
       <c r="X11">
-        <v>0.977593254469821</v>
+        <v>0.9747074269921383</v>
       </c>
       <c r="Y11">
-        <v>0.977593254469821</v>
+        <v>0.9747074269921383</v>
       </c>
       <c r="Z11">
-        <v>0.977593254469821</v>
+        <v>0.9747074269921383</v>
       </c>
       <c r="AA11">
-        <v>0.977593254469821</v>
+        <v>0.9747074269921383</v>
       </c>
       <c r="AB11">
-        <v>0.977593254469821</v>
+        <v>0.9747074269921383</v>
       </c>
       <c r="AC11">
-        <v>0.977593254469821</v>
+        <v>0.9747074269921383</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.9758027247498032</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -6103,6 +6169,9 @@
         <v>1</v>
       </c>
       <c r="CC11">
+        <v>1</v>
+      </c>
+      <c r="CD11">
         <v>1</v>
       </c>
     </row>
@@ -6121,453 +6190,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>47</v>
-      </c>
-      <c r="D2">
-        <v>55</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5926991697815625</v>
       </c>
       <c r="F2">
-        <v>0.5237652129368542</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2">
         <v>49</v>
       </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
-      </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>47</v>
-      </c>
-      <c r="D3">
-        <v>52</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5370863103491953</v>
       </c>
       <c r="F3">
-        <v>0.5002177951267808</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3">
         <v>49</v>
       </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
-      </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7847710230211948</v>
       </c>
       <c r="F4">
-        <v>0.6122197727215335</v>
+        <v>15</v>
       </c>
       <c r="G4">
+        <v>850</v>
+      </c>
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4">
         <v>49</v>
       </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
-      </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>47</v>
-      </c>
-      <c r="D5">
-        <v>56</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7022887018917469</v>
       </c>
       <c r="F5">
-        <v>0.5003349453857235</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5">
         <v>49</v>
       </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5701669172993543</v>
       </c>
       <c r="F6">
-        <v>0.51274738662215</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6">
         <v>49</v>
       </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" t="s">
-        <v>104</v>
-      </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.5206369065855803</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.53124026020598</v>
-      </c>
       <c r="G7">
-        <v>5</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7">
         <v>49</v>
       </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>47</v>
-      </c>
-      <c r="D8">
-        <v>58</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5594826997099682</v>
       </c>
       <c r="F8">
-        <v>0.5280740580137061</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8">
         <v>49</v>
       </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.6143087225937862</v>
       </c>
       <c r="F9">
-        <v>0.5125825460479101</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9">
         <v>49</v>
       </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5932030918742679</v>
       </c>
       <c r="F10">
-        <v>0.6517322620945697</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10">
         <v>49</v>
       </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.625968865417208</v>
       </c>
       <c r="F11">
-        <v>0.6374367415968906</v>
+        <v>4</v>
       </c>
       <c r="G11">
+        <v>850</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11">
         <v>49</v>
       </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
-      </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6585,453 +6654,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>47</v>
-      </c>
-      <c r="D2">
-        <v>60</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8451100566977433</v>
       </c>
       <c r="F2">
-        <v>0.7375761458804837</v>
+        <v>61</v>
       </c>
       <c r="G2">
+        <v>850</v>
+      </c>
+      <c r="H2">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2">
         <v>49</v>
       </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
-      </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>47</v>
-      </c>
-      <c r="D3">
-        <v>62</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8528164354451246</v>
       </c>
       <c r="F3">
-        <v>0.7906787471778771</v>
+        <v>61</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3">
         <v>49</v>
       </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
-      </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7847710230211948</v>
       </c>
       <c r="F4">
-        <v>0.7034244665384852</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4">
         <v>49</v>
       </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
-      </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>47</v>
-      </c>
-      <c r="D5">
-        <v>62</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7022887018917469</v>
       </c>
       <c r="F5">
-        <v>0.7418531626437088</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5">
         <v>49</v>
       </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8772935163433583</v>
       </c>
       <c r="F6">
-        <v>0.7382137430844619</v>
+        <v>15</v>
       </c>
       <c r="G6">
+        <v>850</v>
+      </c>
+      <c r="H6">
         <v>13</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6">
         <v>49</v>
       </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" t="s">
-        <v>104</v>
-      </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.7160454235985745</v>
+      </c>
+      <c r="F7">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7708827054858605</v>
-      </c>
       <c r="G7">
-        <v>14</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7">
         <v>49</v>
       </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>47</v>
-      </c>
-      <c r="D8">
-        <v>61</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7059222094282938</v>
       </c>
       <c r="F8">
-        <v>0.7124940220008856</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8">
         <v>49</v>
       </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7158642336920319</v>
       </c>
       <c r="F9">
-        <v>0.7563707663335454</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9">
         <v>49</v>
       </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7913515844108006</v>
       </c>
       <c r="F10">
-        <v>0.7240297438811085</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10">
         <v>49</v>
       </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7385620902960441</v>
       </c>
       <c r="F11">
-        <v>0.7501870019103564</v>
+        <v>6</v>
       </c>
       <c r="G11">
+        <v>850</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11">
         <v>49</v>
       </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
-      </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7049,453 +7118,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>47</v>
-      </c>
-      <c r="D2">
-        <v>62</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8451100566977433</v>
       </c>
       <c r="F2">
-        <v>0.8567142032043515</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2">
         <v>49</v>
       </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
-      </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>47</v>
-      </c>
-      <c r="D3">
-        <v>63</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8528164354451246</v>
       </c>
       <c r="F3">
-        <v>0.8098698051854247</v>
+        <v>61</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3">
         <v>49</v>
       </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
-      </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8157048682462449</v>
       </c>
       <c r="F4">
-        <v>0.8041119278776746</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4">
         <v>49</v>
       </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
-      </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>47</v>
-      </c>
-      <c r="D5">
-        <v>63</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.888362978163158</v>
       </c>
       <c r="F5">
-        <v>0.8069760041176789</v>
+        <v>61</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5">
         <v>49</v>
       </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8772935163433583</v>
       </c>
       <c r="F6">
-        <v>0.8264003963204301</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6">
         <v>49</v>
       </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" t="s">
-        <v>104</v>
-      </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8070549617066294</v>
       </c>
       <c r="F7">
-        <v>0.8636840142255378</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7">
         <v>49</v>
       </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>47</v>
-      </c>
-      <c r="D8">
-        <v>64</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8678619283428998</v>
       </c>
       <c r="F8">
-        <v>0.8413565162873171</v>
+        <v>62</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8">
         <v>49</v>
       </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8019161639870365</v>
       </c>
       <c r="F9">
-        <v>0.8225589776730042</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9">
         <v>49</v>
       </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8190315897028938</v>
       </c>
       <c r="F10">
-        <v>0.8243325781891945</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10">
         <v>49</v>
       </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8224220616849759</v>
       </c>
       <c r="F11">
-        <v>0.8055189742422892</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11">
         <v>49</v>
       </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
-      </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7513,453 +7582,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>47</v>
-      </c>
-      <c r="D2">
-        <v>66</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9134779244331758</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2">
         <v>49</v>
       </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
-      </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>47</v>
-      </c>
-      <c r="D3">
-        <v>71</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9740986500236249</v>
       </c>
       <c r="F3">
-        <v>0.9159795698415221</v>
+        <v>63</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3">
         <v>49</v>
       </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
-      </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.9005673131099207</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4">
         <v>49</v>
       </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
-      </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>47</v>
-      </c>
-      <c r="D5">
-        <v>73</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9185153002976576</v>
       </c>
       <c r="F5">
-        <v>0.9140754347969691</v>
+        <v>63</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5">
         <v>49</v>
       </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.959995940942074</v>
       </c>
       <c r="F6">
-        <v>0.9038146710753298</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6">
         <v>49</v>
       </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" t="s">
-        <v>104</v>
-      </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9059344752174844</v>
+      </c>
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9274394897857523</v>
-      </c>
       <c r="G7">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7">
         <v>49</v>
       </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>47</v>
-      </c>
-      <c r="D8">
-        <v>67</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.954424406315735</v>
       </c>
       <c r="F8">
-        <v>0.9052109106124117</v>
+        <v>65</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8">
         <v>49</v>
       </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9004058794778904</v>
       </c>
       <c r="F9">
-        <v>0.9418821589180522</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9">
         <v>49</v>
       </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>28</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9168043250057423</v>
       </c>
       <c r="F10">
-        <v>0.9288882071418717</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10">
         <v>49</v>
       </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9747074269921383</v>
       </c>
       <c r="F11">
-        <v>0.9008838175507619</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11">
         <v>49</v>
       </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
-      </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
